--- a/RailIndexPrj/trans_index_x12.xlsx
+++ b/RailIndexPrj/trans_index_x12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\2015年\计算分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\2015年\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1420,22 +1420,22 @@
         <v>69466.105580799893</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
@@ -1506,22 +1506,22 @@
         <v>69563.960898507794</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
@@ -1592,22 +1592,22 @@
         <v>69668.915278492699</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
@@ -1678,22 +1678,22 @@
         <v>69777.936288390207</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
@@ -1764,22 +1764,22 @@
         <v>69890.251292967005</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
@@ -1850,22 +1850,22 @@
         <v>70001.683955914399</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
@@ -1936,22 +1936,22 @@
         <v>70109.907737596295</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
@@ -2022,22 +2022,22 @@
         <v>70219.961969116106</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
@@ -2108,22 +2108,22 @@
         <v>70340.521088745896</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
@@ -2194,22 +2194,22 @@
         <v>70485.334216213101</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
@@ -2280,22 +2280,22 @@
         <v>70663.162607070306</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
@@ -2366,22 +2366,22 @@
         <v>70870.5544644162</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
@@ -2462,22 +2462,22 @@
         <v>71090.930947676607</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
@@ -2558,22 +2558,22 @@
         <v>71300.724763046295</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.15">
@@ -2654,22 +2654,22 @@
         <v>71481.137619363901</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
@@ -2750,22 +2750,22 @@
         <v>71625.900191624896</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.15">
@@ -2846,22 +2846,22 @@
         <v>71744.700955138396</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.15">
@@ -2942,22 +2942,22 @@
         <v>71853.722088588707</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.15">
@@ -3038,22 +3038,22 @@
         <v>71961.440974387195</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.15">
@@ -3134,22 +3134,22 @@
         <v>72070.0324135267</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.15">
@@ -3230,22 +3230,22 @@
         <v>72175.810924089106</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.15">
@@ -3326,22 +3326,22 @@
         <v>72272.153037171796</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.15">
@@ -3422,22 +3422,22 @@
         <v>72354.229522605994</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.15">
@@ -3518,22 +3518,22 @@
         <v>72421.614272254796</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.15">
@@ -3614,22 +3614,22 @@
         <v>72481.056767844595</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.15">
@@ -3710,22 +3710,22 @@
         <v>72545.012511943802</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.15">
@@ -3806,22 +3806,22 @@
         <v>72624.914135458006</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.15">
@@ -3902,22 +3902,22 @@
         <v>72724.179526311898</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.15">
@@ -3998,22 +3998,22 @@
         <v>72835.665361578402</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.15">
@@ -4094,22 +4094,22 @@
         <v>72949.330758005701</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.15">
@@ -4190,22 +4190,22 @@
         <v>73059.334831365704</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.15">
@@ -4286,22 +4286,22 @@
         <v>73163.437661876203</v>
       </c>
       <c r="W34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.15">
@@ -4382,22 +4382,22 @@
         <v>73261.469704588701</v>
       </c>
       <c r="W35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.15">
@@ -4478,22 +4478,22 @@
         <v>73353.413157253395</v>
       </c>
       <c r="W36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.15">
@@ -4574,22 +4574,22 @@
         <v>73441.341583085494</v>
       </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.15">
@@ -4670,22 +4670,22 @@
         <v>73530.9181284285</v>
       </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.15">
@@ -4766,22 +4766,22 @@
         <v>73628.806441273802</v>
       </c>
       <c r="W39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.15">
@@ -4862,22 +4862,22 @@
         <v>73737.758759388904</v>
       </c>
       <c r="W40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB40" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.15">
@@ -4958,22 +4958,22 @@
         <v>73854.109252959301</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.15">
@@ -5054,22 +5054,22 @@
         <v>73971.313991834104</v>
       </c>
       <c r="W42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.15">
@@ -5150,22 +5150,22 @@
         <v>74083.123812708101</v>
       </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.15">
@@ -5246,22 +5246,22 @@
         <v>74188.776051262597</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.15">
@@ -5342,22 +5342,22 @@
         <v>74291.4790779959</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.15">
@@ -5438,22 +5438,22 @@
         <v>74394.194348996098</v>
       </c>
       <c r="W46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.15">
@@ -5534,22 +5534,22 @@
         <v>74494.327598181102</v>
       </c>
       <c r="W47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.15">
@@ -5630,22 +5630,22 @@
         <v>74586.729456440604</v>
       </c>
       <c r="W48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.15">
@@ -5726,22 +5726,22 @@
         <v>74670.167002582093</v>
       </c>
       <c r="W49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.15">
@@ -5822,22 +5822,22 @@
         <v>74750.359098059096</v>
       </c>
       <c r="W50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.15">
@@ -5918,22 +5918,22 @@
         <v>74836.737932438205</v>
       </c>
       <c r="W51" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z51" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.15">
@@ -6014,22 +6014,22 @@
         <v>74935.137157824996</v>
       </c>
       <c r="W52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.15">
@@ -6110,22 +6110,22 @@
         <v>75043.150522639495</v>
       </c>
       <c r="W53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB53" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.15">
@@ -6206,22 +6206,22 @@
         <v>75154.630141621499</v>
       </c>
       <c r="W54" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z54" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.15">
@@ -6302,22 +6302,22 @@
         <v>75263.855964148897</v>
       </c>
       <c r="W55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.15">
@@ -6398,22 +6398,22 @@
         <v>75370.842462630506</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z56" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.15">
@@ -6494,22 +6494,22 @@
         <v>75478.552508642897</v>
       </c>
       <c r="W57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.15">
@@ -6590,22 +6590,22 @@
         <v>75594.098388311497</v>
       </c>
       <c r="W58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.15">
@@ -6686,22 +6686,22 @@
         <v>75721.962077477598</v>
       </c>
       <c r="W59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.15">
@@ -6782,22 +6782,22 @@
         <v>75865.152800730604</v>
       </c>
       <c r="W60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.15">
@@ -6878,22 +6878,22 @@
         <v>76023.808353196495</v>
       </c>
       <c r="W61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.15">
@@ -6974,22 +6974,22 @@
         <v>76191.363496189602</v>
       </c>
       <c r="W62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.15">
@@ -7070,22 +7070,22 @@
         <v>76355.102971363303</v>
       </c>
       <c r="W63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.15">
@@ -7166,22 +7166,22 @@
         <v>76502.794678307604</v>
       </c>
       <c r="W64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.15">
@@ -7262,22 +7262,22 @@
         <v>76629.255368169703</v>
       </c>
       <c r="W65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.15">
@@ -7358,22 +7358,22 @@
         <v>76742.033885926197</v>
       </c>
       <c r="W66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.15">
@@ -7454,22 +7454,22 @@
         <v>76862.117494430902</v>
       </c>
       <c r="W67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.15">
@@ -7550,22 +7550,22 @@
         <v>77001.972825240402</v>
       </c>
       <c r="W68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.15">
@@ -7646,22 +7646,22 @@
         <v>77147.1933911245</v>
       </c>
       <c r="W69" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z69" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.15">
@@ -7742,22 +7742,22 @@
         <v>77268.040929529103</v>
       </c>
       <c r="W70" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X70" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z70" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.15">
@@ -7838,22 +7838,22 @@
         <v>77347.773023542395</v>
       </c>
       <c r="W71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.15">
@@ -7934,22 +7934,22 @@
         <v>77385.011476290296</v>
       </c>
       <c r="W72" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y72" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z72" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA72" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB72" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.15">
@@ -8030,22 +8030,22 @@
         <v>77387.348378496099</v>
       </c>
       <c r="W73" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y73" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z73" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA73" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB73" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.15">
@@ -8126,22 +8126,22 @@
         <v>77367.579144675095</v>
       </c>
       <c r="W74" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y74" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z74" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA74" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB74" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.15">
@@ -8222,22 +8222,22 @@
         <v>77341.960777469998</v>
       </c>
       <c r="W75" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X75" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y75" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z75" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA75" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB75" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.15">
@@ -8318,22 +8318,22 @@
         <v>77332.933744596099</v>
       </c>
       <c r="W76" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X76" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z76" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA76" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB76" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.15">
@@ -8414,22 +8414,22 @@
         <v>77370.265910139598</v>
       </c>
       <c r="W77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB77" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.15">
@@ -8510,22 +8510,22 @@
         <v>77470.285252518894</v>
       </c>
       <c r="W78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB78" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.15">
@@ -8606,22 +8606,22 @@
         <v>77625.716284025199</v>
       </c>
       <c r="W79" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X79" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y79" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z79" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA79" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB79" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.15">
@@ -8702,22 +8702,22 @@
         <v>77818.261932507798</v>
       </c>
       <c r="W80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB80" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.15">
@@ -8798,22 +8798,22 @@
         <v>78041.316800693094</v>
       </c>
       <c r="W81" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB81" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.15">
@@ -8894,22 +8894,22 @@
         <v>78285.981620124003</v>
       </c>
       <c r="W82" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X82" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y82" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z82" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA82" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB82" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.15">
@@ -8990,22 +8990,22 @@
         <v>78519.475258945793</v>
       </c>
       <c r="W83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.15">
@@ -9086,22 +9086,22 @@
         <v>78701.638263348097</v>
       </c>
       <c r="W84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB84" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.15">
@@ -9182,22 +9182,22 @@
         <v>78804.505649217594</v>
       </c>
       <c r="W85" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X85" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y85" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z85" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA85" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB85" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.15">
@@ -9278,22 +9278,22 @@
         <v>78832.134222809094</v>
       </c>
       <c r="W86" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X86" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y86" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z86" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA86" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB86" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.15">
@@ -9374,22 +9374,22 @@
         <v>78824.003476737998</v>
       </c>
       <c r="W87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB87" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.15">
@@ -9470,22 +9470,22 @@
         <v>78834.724534597699</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.15">
@@ -9566,22 +9566,22 @@
         <v>78905.063320507994</v>
       </c>
       <c r="W89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.15">
@@ -9662,22 +9662,22 @@
         <v>79048.844793256503</v>
       </c>
       <c r="W90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB90" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.15">
@@ -9758,22 +9758,22 @@
         <v>79255.292124371597</v>
       </c>
       <c r="W91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB91" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.15">
@@ -9854,22 +9854,22 @@
         <v>79499.482029691193</v>
       </c>
       <c r="W92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB92" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.15">
@@ -9950,22 +9950,22 @@
         <v>79754.997362846407</v>
       </c>
       <c r="W93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB93" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.15">
@@ -10046,22 +10046,22 @@
         <v>80031.022946133395</v>
       </c>
       <c r="W94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB94" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.15">
@@ -10142,22 +10142,22 @@
         <v>80353.332735613207</v>
       </c>
       <c r="W95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB95" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.15">
@@ -10238,22 +10238,22 @@
         <v>80775.224819963201</v>
       </c>
       <c r="W96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB96" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.15">
@@ -10334,22 +10334,22 @@
         <v>81343.737827652003</v>
       </c>
       <c r="W97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB97" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.15">
@@ -10430,22 +10430,22 @@
         <v>82056.211909622405</v>
       </c>
       <c r="W98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB98" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.15">
@@ -10526,22 +10526,22 @@
         <v>82846.042277091197</v>
       </c>
       <c r="W99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB99" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.15">
@@ -10622,22 +10622,22 @@
         <v>83606.818742144402</v>
       </c>
       <c r="W100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.15">
@@ -10718,22 +10718,22 @@
         <v>84244.721282182407</v>
       </c>
       <c r="W101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB101" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.15">
@@ -10814,22 +10814,22 @@
         <v>84726.097208404797</v>
       </c>
       <c r="W102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.15">
@@ -10910,22 +10910,22 @@
         <v>85084.126849775203</v>
       </c>
       <c r="W103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB103" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.15">
@@ -11006,22 +11006,22 @@
         <v>85385.468502340402</v>
       </c>
       <c r="W104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB104" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.15">
@@ -11102,22 +11102,22 @@
         <v>85671.279153162206</v>
       </c>
       <c r="W105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB105" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.15">
@@ -11198,22 +11198,22 @@
         <v>85973.080321692207</v>
       </c>
       <c r="W106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB106" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.15">
@@ -11294,22 +11294,22 @@
         <v>86320.170545923203</v>
       </c>
       <c r="W107" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X107" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y107" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z107" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA107" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB107" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.15">
@@ -11390,22 +11390,22 @@
         <v>86745.296010730206</v>
       </c>
       <c r="W108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.15">
@@ -11486,22 +11486,22 @@
         <v>87275.084817551397</v>
       </c>
       <c r="W109" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X109" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y109" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z109" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA109" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB109" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.15">
@@ -11582,22 +11582,22 @@
         <v>87904.281935946099</v>
       </c>
       <c r="W110" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X110" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y110" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z110" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA110" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB110" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.15">
@@ -11678,22 +11678,22 @@
         <v>88584.631449037697</v>
       </c>
       <c r="W111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.15">
@@ -11774,22 +11774,22 @@
         <v>89244.227196031396</v>
       </c>
       <c r="W112" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X112" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y112" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z112" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA112" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB112" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.15">
@@ -11870,22 +11870,22 @@
         <v>89823.6563327974</v>
       </c>
       <c r="W113" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X113" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y113" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z113" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA113" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB113" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.15">
@@ -11966,22 +11966,22 @@
         <v>90302.369667483305</v>
       </c>
       <c r="W114" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X114" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y114" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z114" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA114" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB114" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.15">
@@ -12062,22 +12062,22 @@
         <v>90699.595928952403</v>
       </c>
       <c r="W115" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X115" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y115" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z115" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA115" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB115" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.15">
@@ -12158,22 +12158,22 @@
         <v>91058.194528113498</v>
       </c>
       <c r="W116" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X116" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y116" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z116" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA116" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB116" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.15">
@@ -12254,22 +12254,22 @@
         <v>91418.342524937994</v>
       </c>
       <c r="W117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.15">
@@ -12350,22 +12350,22 @@
         <v>91792.940597396999</v>
       </c>
       <c r="W118" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X118" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y118" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z118" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA118" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB118" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.15">
@@ -12446,22 +12446,22 @@
         <v>92134.605890234307</v>
       </c>
       <c r="W119" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X119" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y119" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z119" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA119" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB119" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.15">
@@ -12542,22 +12542,22 @@
         <v>92368.518896147201</v>
       </c>
       <c r="W120" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X120" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y120" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z120" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA120" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB120" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.15">
@@ -12638,22 +12638,22 @@
         <v>92434.457280691</v>
       </c>
       <c r="W121" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X121" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y121" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z121" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA121" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB121" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.15">
@@ -12734,22 +12734,22 @@
         <v>92337.570006805603</v>
       </c>
       <c r="W122" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X122" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y122" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z122" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA122" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB122" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.15">
@@ -12830,22 +12830,22 @@
         <v>92166.388514954495</v>
       </c>
       <c r="W123" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X123" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y123" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z123" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA123" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB123" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.15">
@@ -12926,22 +12926,22 @@
         <v>92054.058118499699</v>
       </c>
       <c r="W124" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X124" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y124" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z124" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA124" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB124" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.15">
@@ -13022,22 +13022,22 @@
         <v>92105.371247161704</v>
       </c>
       <c r="W125" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X125" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y125" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z125" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA125" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB125" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.15">
@@ -13118,22 +13118,22 @@
         <v>92344.635742225204</v>
       </c>
       <c r="W126" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X126" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y126" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z126" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA126" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB126" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.15">
@@ -13214,22 +13214,22 @@
         <v>92726.112337001599</v>
       </c>
       <c r="W127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB127" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.15">
@@ -13310,22 +13310,22 @@
         <v>93177.308802021202</v>
       </c>
       <c r="W128" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X128" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y128" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z128" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA128" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB128" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.15">
@@ -13406,22 +13406,22 @@
         <v>93627.008984442597</v>
       </c>
       <c r="W129" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X129" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y129" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z129" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA129" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB129" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.15">
@@ -13502,22 +13502,22 @@
         <v>94034.477714397406</v>
       </c>
       <c r="W130" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X130" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y130" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z130" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA130" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB130" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.15">
@@ -13598,22 +13598,22 @@
         <v>94381.865613418398</v>
       </c>
       <c r="W131" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X131" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y131" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z131" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA131" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB131" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.15">
@@ -13694,22 +13694,22 @@
         <v>94683.268658080298</v>
       </c>
       <c r="W132" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X132" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y132" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z132" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA132" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB132" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.15">
@@ -13790,22 +13790,22 @@
         <v>94966.973394992499</v>
       </c>
       <c r="W133" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X133" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y133" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z133" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA133" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB133" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.15">
@@ -13886,22 +13886,22 @@
         <v>95267.844815726101</v>
       </c>
       <c r="W134" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X134" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y134" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z134" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA134" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB134" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.15">
@@ -13982,22 +13982,22 @@
         <v>95608.221010568202</v>
       </c>
       <c r="W135" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X135" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y135" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z135" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA135" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB135" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.15">
@@ -14078,22 +14078,22 @@
         <v>95983.335725378201</v>
       </c>
       <c r="W136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.15">
@@ -14174,22 +14174,22 @@
         <v>96379.710125429294</v>
       </c>
       <c r="W137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.15">
@@ -14270,22 +14270,22 @@
         <v>96783.016937439301</v>
       </c>
       <c r="W138" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X138" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y138" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z138" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA138" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB138" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.15">
@@ -14366,22 +14366,22 @@
         <v>97193.859566965504</v>
       </c>
       <c r="W139" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X139" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y139" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z139" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA139" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB139" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.15">
@@ -14462,22 +14462,22 @@
         <v>97603.226072430407</v>
       </c>
       <c r="W140" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X140" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y140" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z140" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA140" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB140" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.15">
@@ -14558,22 +14558,22 @@
         <v>98008.961754987205</v>
       </c>
       <c r="W141" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X141" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y141" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z141" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA141" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB141" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.15">
@@ -14654,22 +14654,22 @@
         <v>98410.866451948401</v>
       </c>
       <c r="W142" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X142" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y142" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z142" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA142" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB142" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.15">
@@ -14750,22 +14750,22 @@
         <v>98802.138051025206</v>
       </c>
       <c r="W143" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X143" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y143" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z143" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA143" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB143" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.15">
@@ -14846,22 +14846,22 @@
         <v>99212.274426908902</v>
       </c>
       <c r="W144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.15">
@@ -14942,22 +14942,22 @@
         <v>99662.088387447002</v>
       </c>
       <c r="W145" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X145" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y145" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z145" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA145" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB145" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.15">
@@ -15038,22 +15038,22 @@
         <v>100159.53803198</v>
       </c>
       <c r="W146" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X146" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y146" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z146" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA146" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB146" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.15">
@@ -15134,22 +15134,22 @@
         <v>100699.06193020599</v>
       </c>
       <c r="W147" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X147" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y147" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z147" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA147" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB147" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.15">
@@ -15230,22 +15230,22 @@
         <v>101253.893195814</v>
       </c>
       <c r="W148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB148" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.15">
@@ -15326,22 +15326,22 @@
         <v>101795.87592741101</v>
       </c>
       <c r="W149" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X149" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y149" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z149" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA149" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB149" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.15">
@@ -15422,22 +15422,22 @@
         <v>102284.262752596</v>
       </c>
       <c r="W150" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X150" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y150" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z150" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA150" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB150" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.15">
@@ -15518,22 +15518,22 @@
         <v>102717.97964326</v>
       </c>
       <c r="W151" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X151" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y151" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z151" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA151" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB151" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.15">
@@ -15614,22 +15614,22 @@
         <v>103099.481066992</v>
       </c>
       <c r="W152" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X152" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y152" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z152" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA152" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB152" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.15">
@@ -15710,22 +15710,22 @@
         <v>103485.410767144</v>
       </c>
       <c r="W153" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X153" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y153" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z153" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA153" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB153" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.15">
@@ -15806,22 +15806,22 @@
         <v>103922.199826558</v>
       </c>
       <c r="W154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB154" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.15">
@@ -15902,22 +15902,22 @@
         <v>104332.460723164</v>
       </c>
       <c r="W155" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X155" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y155" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z155" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA155" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB155" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.15">
@@ -15998,22 +15998,22 @@
         <v>104527.057373608</v>
       </c>
       <c r="W156" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X156" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y156" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z156" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA156" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB156" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.15">
@@ -16094,22 +16094,22 @@
         <v>104343.14382070101</v>
       </c>
       <c r="W157" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X157" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y157" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z157" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA157" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB157" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.15">
@@ -16190,22 +16190,22 @@
         <v>103827.78105555099</v>
       </c>
       <c r="W158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB158" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.15">
@@ -16286,22 +16286,22 @@
         <v>103264.855034978</v>
       </c>
       <c r="W159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB159" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.15">
@@ -16382,22 +16382,22 @@
         <v>102972.25725530399</v>
       </c>
       <c r="W160" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X160" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y160" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z160" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA160" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB160" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.15">
@@ -16478,22 +16478,22 @@
         <v>103079.776310592</v>
       </c>
       <c r="W161" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X161" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y161" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z161" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA161" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB161" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.15">
@@ -16574,22 +16574,22 @@
         <v>103458.54695094599</v>
       </c>
       <c r="W162" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X162" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y162" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z162" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA162" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB162" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.15">
@@ -16670,22 +16670,22 @@
         <v>103927.242587132</v>
       </c>
       <c r="W163" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X163" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y163" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z163" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA163" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB163" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.15">
@@ -16766,22 +16766,22 @@
         <v>104382.62212575899</v>
       </c>
       <c r="W164" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X164" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y164" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z164" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA164" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB164" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.15">
@@ -16862,22 +16862,22 @@
         <v>104776.20319031901</v>
       </c>
       <c r="W165" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X165" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y165" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z165" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA165" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB165" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.15">
@@ -16958,22 +16958,22 @@
         <v>105167.193298753</v>
       </c>
       <c r="W166" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X166" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y166" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z166" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA166" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB166" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.15">
@@ -17054,22 +17054,22 @@
         <v>105687.20237395899</v>
       </c>
       <c r="W167" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X167" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y167" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z167" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA167" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB167" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.15">
@@ -17150,22 +17150,22 @@
         <v>106467.884577719</v>
       </c>
       <c r="W168" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X168" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y168" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z168" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA168" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB168" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.15">
@@ -17246,22 +17246,22 @@
         <v>107584.836979128</v>
       </c>
       <c r="W169" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X169" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y169" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z169" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA169" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB169" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.15">
@@ -17342,22 +17342,22 @@
         <v>108930.975364082</v>
       </c>
       <c r="W170" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X170" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y170" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z170" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA170" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB170" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.15">
@@ -17438,22 +17438,22 @@
         <v>110222.32944482</v>
       </c>
       <c r="W171" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X171" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y171" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z171" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA171" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB171" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.15">
@@ -17534,22 +17534,22 @@
         <v>111199.003843197</v>
       </c>
       <c r="W172" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X172" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y172" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z172" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA172" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB172" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.15">
@@ -17630,22 +17630,22 @@
         <v>111792.788522516</v>
       </c>
       <c r="W173" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X173" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y173" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z173" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA173" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB173" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.15">
@@ -17726,22 +17726,22 @@
         <v>112200.91043624</v>
       </c>
       <c r="W174" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X174" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y174" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z174" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA174" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB174" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.15">
@@ -17822,22 +17822,22 @@
         <v>112621.73142818399</v>
       </c>
       <c r="W175" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X175" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y175" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z175" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA175" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB175" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.15">
@@ -17918,22 +17918,22 @@
         <v>113203.479035988</v>
       </c>
       <c r="W176" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X176" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y176" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z176" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA176" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB176" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.15">
@@ -18014,22 +18014,22 @@
         <v>113929.70619573</v>
       </c>
       <c r="W177" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X177" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y177" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z177" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA177" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB177" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.15">
@@ -18110,22 +18110,22 @@
         <v>114687.497768442</v>
       </c>
       <c r="W178" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X178" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y178" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z178" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA178" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB178" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.15">
@@ -18206,22 +18206,22 @@
         <v>115430.57246687201</v>
       </c>
       <c r="W179" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X179" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y179" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z179" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA179" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB179" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.15">
@@ -18302,22 +18302,22 @@
         <v>116169.93503042799</v>
       </c>
       <c r="W180" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X180" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y180" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z180" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA180" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB180" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.15">
@@ -18398,22 +18398,22 @@
         <v>117001.72311761101</v>
       </c>
       <c r="W181" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X181" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y181" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z181" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA181" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB181" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.15">
@@ -18494,22 +18494,22 @@
         <v>117968.066660276</v>
       </c>
       <c r="W182" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X182" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y182" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z182" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA182" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB182" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/RailIndexPrj/trans_index_x12.xlsx
+++ b/RailIndexPrj/trans_index_x12.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\原D\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2652" windowWidth="19440" windowHeight="4800"/>
+    <workbookView xWindow="300" yWindow="2655" windowWidth="19440" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="trans_index_x12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -205,8 +210,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,24 +836,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -863,15 +868,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -930,7 +935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,9 +967,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1002,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,27 +1178,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,18 +1352,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
       <c r="B3" s="1">
-        <v>1.1200729344934901</v>
+        <v>1.44206341708136</v>
       </c>
       <c r="C3" s="1">
         <v>11.526816523459001</v>
       </c>
       <c r="D3" s="1">
-        <v>966.85979568144</v>
+        <v>1174.7020892519299</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1431,18 +1438,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>36923</v>
       </c>
       <c r="B4" s="1">
-        <v>1.1320537404043001</v>
+        <v>1.4509841945872799</v>
       </c>
       <c r="C4" s="1">
         <v>11.3272256138555</v>
       </c>
       <c r="D4" s="1">
-        <v>969.41674130500996</v>
+        <v>1179.9394063438899</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1517,18 +1524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>36951</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1431611502288801</v>
+        <v>1.4611146299317701</v>
       </c>
       <c r="C5" s="1">
         <v>11.012571059261001</v>
       </c>
       <c r="D5" s="1">
-        <v>972.39246164480699</v>
+        <v>1185.3006338442699</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1603,18 +1610,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>36982</v>
       </c>
       <c r="B6" s="1">
-        <v>1.1529779258089199</v>
+        <v>1.4712090710907799</v>
       </c>
       <c r="C6" s="1">
         <v>10.6088712108688</v>
       </c>
       <c r="D6" s="1">
-        <v>975.14139247742901</v>
+        <v>1189.8061645469299</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1689,18 +1696,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>37012</v>
       </c>
       <c r="B7" s="1">
-        <v>1.1610221491521</v>
+        <v>1.4807463192239001</v>
       </c>
       <c r="C7" s="1">
         <v>10.126777098946601</v>
       </c>
       <c r="D7" s="1">
-        <v>977.58063676595998</v>
+        <v>1192.6015744356</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1775,18 +1782,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>37043</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1685416815062999</v>
+        <v>1.4910139760799801</v>
       </c>
       <c r="C8" s="1">
         <v>9.6281705164169207</v>
       </c>
       <c r="D8" s="1">
-        <v>979.86758934122599</v>
+        <v>1193.73383693357</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1861,18 +1868,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>37073</v>
       </c>
       <c r="B9" s="1">
-        <v>1.1759577964400101</v>
+        <v>1.5013208113857699</v>
       </c>
       <c r="C9" s="1">
         <v>9.1660181674390504</v>
       </c>
       <c r="D9" s="1">
-        <v>982.28360877920397</v>
+        <v>1193.88124341816</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1947,18 +1954,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>37104</v>
       </c>
       <c r="B10" s="1">
-        <v>1.1839256569780801</v>
+        <v>1.51228131998003</v>
       </c>
       <c r="C10" s="1">
         <v>8.8140917607477505</v>
       </c>
       <c r="D10" s="1">
-        <v>985.89296038375505</v>
+        <v>1195.24367022922</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2033,18 +2040,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>37135</v>
       </c>
       <c r="B11" s="1">
-        <v>1.1927898573604001</v>
+        <v>1.52472162357562</v>
       </c>
       <c r="C11" s="1">
         <v>8.6315721732995101</v>
       </c>
       <c r="D11" s="1">
-        <v>991.42094789024497</v>
+        <v>1200.3513783452299</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2119,18 +2126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>37165</v>
       </c>
       <c r="B12" s="1">
-        <v>1.2007052544074099</v>
+        <v>1.5365742596504799</v>
       </c>
       <c r="C12" s="1">
         <v>8.6101650997130204</v>
       </c>
       <c r="D12" s="1">
-        <v>997.59627174731395</v>
+        <v>1209.3986580629301</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2205,18 +2212,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>37196</v>
       </c>
       <c r="B13" s="1">
-        <v>1.2058030158677899</v>
+        <v>1.54469606966564</v>
       </c>
       <c r="C13" s="1">
         <v>8.7184994024805604</v>
       </c>
       <c r="D13" s="1">
-        <v>1003.08372328435</v>
+        <v>1221.2665227212101</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2291,18 +2298,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>37226</v>
       </c>
       <c r="B14" s="1">
-        <v>1.20732653055567</v>
+        <v>1.54795046152077</v>
       </c>
       <c r="C14" s="1">
         <v>8.9792475163953895</v>
       </c>
       <c r="D14" s="1">
-        <v>1007.72033268417</v>
+        <v>1233.8453519019999</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2377,22 +2384,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>37257</v>
       </c>
       <c r="B15" s="1">
-        <v>1.20613875644768</v>
+        <v>1.5468799640779101</v>
       </c>
       <c r="C15" s="1">
         <v>9.3986662635353504</v>
       </c>
       <c r="D15" s="1">
-        <v>1011.18236676706</v>
+        <v>1244.02823227914</v>
       </c>
       <c r="E15" s="1">
         <f>B15/B3</f>
-        <v>1.0768394800943117</v>
+        <v>1.0726851161710294</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15" si="0">C15/C3</f>
@@ -2400,7 +2407,7 @@
       </c>
       <c r="G15" s="1">
         <f>D15/D3</f>
-        <v>1.0458417769397284</v>
+        <v>1.0590159357521516</v>
       </c>
       <c r="H15" s="1">
         <v>0.82962456982380905</v>
@@ -2473,22 +2480,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>37288</v>
       </c>
       <c r="B16" s="1">
-        <v>1.2039662092993</v>
+        <v>1.5435690264400399</v>
       </c>
       <c r="C16" s="1">
         <v>9.9748718302813408</v>
       </c>
       <c r="D16" s="1">
-        <v>1013.80188394119</v>
+        <v>1250.23602476422</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ref="E16:E79" si="3">B16/B4</f>
-        <v>1.0635239002605275</v>
+        <v>1.0638082979801824</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ref="F16:G31" si="4">C16/C4</f>
@@ -2496,7 +2503,7 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>1.0457854096644026</v>
+        <v>1.0595764647255475</v>
       </c>
       <c r="H16" s="1">
         <v>0.84594300575150805</v>
@@ -2569,22 +2576,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>37316</v>
       </c>
       <c r="B17" s="1">
-        <v>1.2023128128376199</v>
+        <v>1.5398536056605201</v>
       </c>
       <c r="C17" s="1">
         <v>10.677957773407501</v>
       </c>
       <c r="D17" s="1">
-        <v>1016.17918970506</v>
+        <v>1252.30000536071</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="3"/>
-        <v>1.0517439405606959</v>
+        <v>1.0538896634909658</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="4"/>
@@ -2592,7 +2599,7 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:G80" si="12">D17/D5</f>
-        <v>1.0450298925458426</v>
+        <v>1.056525213606899</v>
       </c>
       <c r="H17" s="1">
         <v>0.859109394728236</v>
@@ -2665,22 +2672,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>37347</v>
       </c>
       <c r="B18" s="1">
-        <v>1.20205173077226</v>
+        <v>1.5373373544818101</v>
       </c>
       <c r="C18" s="1">
         <v>11.3978930101109</v>
       </c>
       <c r="D18" s="1">
-        <v>1018.61645591263</v>
+        <v>1251.46505225845</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="3"/>
-        <v>1.042562657848727</v>
+        <v>1.0449482569747899</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="4"/>
@@ -2688,7 +2695,7 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="12"/>
-        <v>1.0445833432675327</v>
+        <v>1.0518226325840221</v>
       </c>
       <c r="H18" s="1">
         <v>0.86558863357750904</v>
@@ -2761,22 +2768,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>37377</v>
       </c>
       <c r="B19" s="1">
-        <v>1.20360557368744</v>
+        <v>1.5372395554348</v>
       </c>
       <c r="C19" s="1">
         <v>12.023388002615</v>
       </c>
       <c r="D19" s="1">
-        <v>1021.55552285763</v>
+        <v>1250.05087021029</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="3"/>
-        <v>1.0366775298528448</v>
+        <v>1.0381518667157719</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="4"/>
@@ -2784,7 +2791,7 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="12"/>
-        <v>1.0449833849380938</v>
+        <v>1.0481714069528023</v>
       </c>
       <c r="H19" s="1">
         <v>0.86408698434308595</v>
@@ -2857,22 +2864,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>37408</v>
       </c>
       <c r="B20" s="1">
-        <v>1.2079695577204399</v>
+        <v>1.5411693301304299</v>
       </c>
       <c r="C20" s="1">
         <v>12.546799143694001</v>
       </c>
       <c r="D20" s="1">
-        <v>1025.7812629454099</v>
+        <v>1251.0493577192899</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>1.0337410952798156</v>
+        <v>1.0336384197969177</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="4"/>
@@ -2880,7 +2887,7 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="12"/>
-        <v>1.0468570183396433</v>
+        <v>1.0480136517977494</v>
       </c>
       <c r="H20" s="1">
         <v>0.85564570291766495</v>
@@ -2953,22 +2960,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>37438</v>
       </c>
       <c r="B21" s="1">
-        <v>1.2149902793521701</v>
+        <v>1.5501230316776999</v>
       </c>
       <c r="C21" s="1">
         <v>12.995300706071401</v>
       </c>
       <c r="D21" s="1">
-        <v>1031.32687787195</v>
+        <v>1255.58591007175</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="3"/>
-        <v>1.0331920780068158</v>
+        <v>1.0325061904969424</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="4"/>
@@ -2976,7 +2983,7 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="12"/>
-        <v>1.0499278097022282</v>
+        <v>1.0516840908538989</v>
       </c>
       <c r="H21" s="1">
         <v>0.84421074721356304</v>
@@ -3049,22 +3056,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>37469</v>
       </c>
       <c r="B22" s="1">
-        <v>1.22312155309549</v>
+        <v>1.56092462568722</v>
       </c>
       <c r="C22" s="1">
         <v>13.4152974399841</v>
       </c>
       <c r="D22" s="1">
-        <v>1036.97055537033</v>
+        <v>1262.7551976459299</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="3"/>
-        <v>1.0331067207525984</v>
+        <v>1.0321655138263774</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="4"/>
@@ -3072,7 +3079,7 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="12"/>
-        <v>1.0518084589697174</v>
+        <v>1.0564834845799791</v>
       </c>
       <c r="H22" s="1">
         <v>0.834594878056929</v>
@@ -3145,22 +3152,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>37500</v>
       </c>
       <c r="B23" s="1">
-        <v>1.22910035268129</v>
+        <v>1.56820092843732</v>
       </c>
       <c r="C23" s="1">
         <v>13.8461687956099</v>
       </c>
       <c r="D23" s="1">
-        <v>1041.4481176443001</v>
+        <v>1269.07301884499</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>1.0304416533195913</v>
+        <v>1.0285162249878352</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="4"/>
@@ -3168,7 +3175,7 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="12"/>
-        <v>1.0504600693181978</v>
+        <v>1.0572512697027914</v>
       </c>
       <c r="H23" s="1">
         <v>0.83026070781998396</v>
@@ -3241,22 +3248,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>37530</v>
       </c>
       <c r="B24" s="1">
-        <v>1.23250010380403</v>
+        <v>1.5716009149644901</v>
       </c>
       <c r="C24" s="1">
         <v>14.342629912640801</v>
       </c>
       <c r="D24" s="1">
-        <v>1045.8072992259199</v>
+        <v>1273.91510732488</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="3"/>
-        <v>1.0264801451312977</v>
+        <v>1.0227952896477503</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="4"/>
@@ -3264,7 +3271,7 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="12"/>
-        <v>1.048327192917595</v>
+        <v>1.0533458912260449</v>
       </c>
       <c r="H24" s="1">
         <v>0.82939770575566996</v>
@@ -3337,22 +3344,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>37561</v>
       </c>
       <c r="B25" s="1">
-        <v>1.2335246832806299</v>
+        <v>1.5719420006988301</v>
       </c>
       <c r="C25" s="1">
         <v>14.8676259790908</v>
       </c>
       <c r="D25" s="1">
-        <v>1050.3782061433999</v>
+        <v>1276.79539354352</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>1.0229902123713708</v>
+        <v>1.0176383766154644</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="4"/>
@@ -3360,7 +3367,7 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="12"/>
-        <v>1.047149088118184</v>
+        <v>1.0454682657628094</v>
       </c>
       <c r="H25" s="1">
         <v>0.82854999566350096</v>
@@ -3433,22 +3440,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>37591</v>
       </c>
       <c r="B26" s="1">
-        <v>1.23391601837242</v>
+        <v>1.5711704028340701</v>
       </c>
       <c r="C26" s="1">
         <v>15.2548544157679</v>
       </c>
       <c r="D26" s="1">
-        <v>1055.1338184634899</v>
+        <v>1278.6451530260199</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
-        <v>1.0220234436532363</v>
+        <v>1.0150004421268675</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
@@ -3456,7 +3463,7 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="12"/>
-        <v>1.0470502422562311</v>
+        <v>1.0363090893481586</v>
       </c>
       <c r="H26" s="1">
         <v>0.82405365437946698</v>
@@ -3529,22 +3536,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>37622</v>
       </c>
       <c r="B27" s="1">
-        <v>1.23702185981863</v>
+        <v>1.57434813036247</v>
       </c>
       <c r="C27" s="1">
         <v>15.408968722757001</v>
       </c>
       <c r="D27" s="1">
-        <v>1061.7218769573899</v>
+        <v>1283.1623433397799</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="3"/>
-        <v>1.0256049340972235</v>
+        <v>1.0177571414217221</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="4"/>
@@ -3552,7 +3559,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="12"/>
-        <v>1.0499806086926873</v>
+        <v>1.0314575747119048</v>
       </c>
       <c r="H27" s="1">
         <v>0.81010720441333295</v>
@@ -3625,22 +3632,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>37653</v>
       </c>
       <c r="B28" s="1">
-        <v>1.2452694100786501</v>
+        <v>1.58560977152352</v>
       </c>
       <c r="C28" s="1">
         <v>15.3742086076955</v>
       </c>
       <c r="D28" s="1">
-        <v>1071.2545505532501</v>
+        <v>1292.9487099287001</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="3"/>
-        <v>1.0343059468449602</v>
+        <v>1.0272360641884861</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="4"/>
@@ -3648,7 +3655,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="12"/>
-        <v>1.0566705068535787</v>
+        <v>1.0341636973486947</v>
       </c>
       <c r="H28" s="1">
         <v>0.78536571313417902</v>
@@ -3721,22 +3728,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>37681</v>
       </c>
       <c r="B29" s="1">
-        <v>1.2591566898037501</v>
+        <v>1.6057281590475201</v>
       </c>
       <c r="C29" s="1">
         <v>15.301388406828501</v>
       </c>
       <c r="D29" s="1">
-        <v>1083.6283103726701</v>
+        <v>1308.92632527917</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
-        <v>1.0472787750069559</v>
+        <v>1.0427797507145122</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="4"/>
@@ -3744,7 +3751,7 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="12"/>
-        <v>1.0663752233375166</v>
+        <v>1.0452178548878546</v>
       </c>
       <c r="H29" s="1">
         <v>0.75522598218444104</v>
@@ -3817,22 +3824,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>37712</v>
       </c>
       <c r="B30" s="1">
-        <v>1.2764904456588499</v>
+        <v>1.6314329212257399</v>
       </c>
       <c r="C30" s="1">
         <v>15.336834944013299</v>
       </c>
       <c r="D30" s="1">
-        <v>1097.95245892291</v>
+        <v>1329.4315517555301</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v>1.0619263821855376</v>
+        <v>1.0612068434228912</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="4"/>
@@ -3840,7 +3847,7 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="12"/>
-        <v>1.0778860409624924</v>
+        <v>1.0623001811807515</v>
       </c>
       <c r="H30" s="1">
         <v>0.72998194208414402</v>
@@ -3913,22 +3920,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>37742</v>
       </c>
       <c r="B31" s="1">
-        <v>1.29292584308326</v>
+        <v>1.6562128007517301</v>
       </c>
       <c r="C31" s="1">
         <v>15.5312610936097</v>
       </c>
       <c r="D31" s="1">
-        <v>1112.11190163129</v>
+        <v>1350.5397721142101</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="3"/>
-        <v>1.0742105813968383</v>
+        <v>1.0773940827220512</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
@@ -3936,7 +3943,7 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="12"/>
-        <v>1.088645577012147</v>
+        <v>1.0803878500456667</v>
       </c>
       <c r="H31" s="1">
         <v>0.71893329477088197</v>
@@ -4009,22 +4016,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>37773</v>
       </c>
       <c r="B32" s="1">
-        <v>1.3043151530227699</v>
+        <v>1.67307803859596</v>
       </c>
       <c r="C32" s="1">
         <v>15.879071780768999</v>
       </c>
       <c r="D32" s="1">
-        <v>1123.20576547975</v>
+        <v>1367.9917289115299</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="3"/>
-        <v>1.0797582974558928</v>
+        <v>1.085590016545662</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ref="F32:F95" si="13">C32/C20</f>
@@ -4032,7 +4039,7 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" si="12"/>
-        <v>1.0949759037853715</v>
+        <v>1.0934754256262362</v>
       </c>
       <c r="H32" s="1">
         <v>0.72777955702694896</v>
@@ -4105,22 +4112,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>37803</v>
       </c>
       <c r="B33" s="1">
-        <v>1.3102830829302301</v>
+        <v>1.6808472189472801</v>
       </c>
       <c r="C33" s="1">
         <v>16.344169011095801</v>
       </c>
       <c r="D33" s="1">
-        <v>1130.9620406241499</v>
+        <v>1380.16660415468</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="3"/>
-        <v>1.0784309184999159</v>
+        <v>1.0843314914998052</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="13"/>
@@ -4128,7 +4135,7 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" si="12"/>
-        <v>1.0966087133865725</v>
+        <v>1.0992211628719304</v>
       </c>
       <c r="H33" s="1">
         <v>0.75471152448969103</v>
@@ -4201,22 +4208,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>37834</v>
       </c>
       <c r="B34" s="1">
-        <v>1.3131607955215101</v>
+        <v>1.68310093043781</v>
       </c>
       <c r="C34" s="1">
         <v>16.846403268774601</v>
       </c>
       <c r="D34" s="1">
-        <v>1136.58206663082</v>
+        <v>1387.3395874236301</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="3"/>
-        <v>1.0736143044803257</v>
+        <v>1.0782717517169031</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="13"/>
@@ -4224,7 +4231,7 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" si="12"/>
-        <v>1.096060115443602</v>
+        <v>1.0986607618087452</v>
       </c>
       <c r="H34" s="1">
         <v>0.79114592778364001</v>
@@ -4297,22 +4304,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>37865</v>
       </c>
       <c r="B35" s="1">
-        <v>1.3165104700788499</v>
+        <v>1.68627028432457</v>
       </c>
       <c r="C35" s="1">
         <v>17.279340846057199</v>
       </c>
       <c r="D35" s="1">
-        <v>1141.8861581312699</v>
+        <v>1391.78726389745</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="3"/>
-        <v>1.0711171526449197</v>
+        <v>1.0752896862552579</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="13"/>
@@ -4320,7 +4327,7 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" si="12"/>
-        <v>1.0964407528184461</v>
+        <v>1.0966959688136344</v>
       </c>
       <c r="H35" s="1">
         <v>0.82636018401462097</v>
@@ -4393,22 +4400,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>37895</v>
       </c>
       <c r="B36" s="1">
-        <v>1.32335688719323</v>
+        <v>1.6953893039436001</v>
       </c>
       <c r="C36" s="1">
         <v>17.597074788155499</v>
       </c>
       <c r="D36" s="1">
-        <v>1148.03524436818</v>
+        <v>1396.69128721993</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="3"/>
-        <v>1.0737174651010386</v>
+        <v>1.0787657908572208</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="13"/>
@@ -4416,7 +4423,7 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" si="12"/>
-        <v>1.0977502693067132</v>
+        <v>1.096377049922008</v>
       </c>
       <c r="H36" s="1">
         <v>0.85156801905416901</v>
@@ -4489,22 +4496,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>37926</v>
       </c>
       <c r="B37" s="1">
-        <v>1.3336236696700201</v>
+        <v>1.7104881757272801</v>
       </c>
       <c r="C37" s="1">
         <v>17.8451681758361</v>
       </c>
       <c r="D37" s="1">
-        <v>1156.10976668535</v>
+        <v>1404.7360559787601</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="3"/>
-        <v>1.0811487502002564</v>
+        <v>1.0881369509605681</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="13"/>
@@ -4512,7 +4519,7 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" si="12"/>
-        <v>1.1006604667952482</v>
+        <v>1.1002045144290216</v>
       </c>
       <c r="H37" s="1">
         <v>0.86335582413337397</v>
@@ -4585,22 +4592,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37956</v>
       </c>
       <c r="B38" s="1">
-        <v>1.34575980494467</v>
+        <v>1.7289832303988699</v>
       </c>
       <c r="C38" s="1">
         <v>18.113576816128699</v>
       </c>
       <c r="D38" s="1">
-        <v>1166.2223244725801</v>
+        <v>1417.3915766944599</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="3"/>
-        <v>1.0906413280214775</v>
+        <v>1.1004428464793747</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="13"/>
@@ -4608,7 +4615,7 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" si="12"/>
-        <v>1.1052838076698743</v>
+        <v>1.1085104990544759</v>
       </c>
       <c r="H38" s="1">
         <v>0.864414504107472</v>
@@ -4681,22 +4688,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37987</v>
       </c>
       <c r="B39" s="1">
-        <v>1.3565873209339301</v>
+        <v>1.74521440239954</v>
       </c>
       <c r="C39" s="1">
         <v>18.326948040823702</v>
       </c>
       <c r="D39" s="1">
-        <v>1176.99878861872</v>
+        <v>1432.66462588328</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="3"/>
-        <v>1.0966558999473386</v>
+        <v>1.1085314415165155</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="13"/>
@@ -4704,7 +4711,7 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" si="12"/>
-        <v>1.1085754321948069</v>
+        <v>1.1165108088773705</v>
       </c>
       <c r="H39" s="1">
         <v>0.86382927919367403</v>
@@ -4777,22 +4784,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>38018</v>
       </c>
       <c r="B40" s="1">
-        <v>1.3645940529416001</v>
+        <v>1.7556892304057301</v>
       </c>
       <c r="C40" s="1">
         <v>18.3241637060888</v>
       </c>
       <c r="D40" s="1">
-        <v>1187.4147708995399</v>
+        <v>1448.4306006294701</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="3"/>
-        <v>1.0958223512897611</v>
+        <v>1.1072643861918123</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="13"/>
@@ -4800,7 +4807,7 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" si="12"/>
-        <v>1.1084338174211712</v>
+        <v>1.1202537188883108</v>
       </c>
       <c r="H40" s="1">
         <v>0.86851171694752005</v>
@@ -4873,22 +4880,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38047</v>
       </c>
       <c r="B41" s="1">
-        <v>1.3711541030409899</v>
+        <v>1.76218495444882</v>
       </c>
       <c r="C41" s="1">
         <v>18.045903266417099</v>
       </c>
       <c r="D41" s="1">
-        <v>1197.0969730906099</v>
+        <v>1463.0074027625601</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="3"/>
-        <v>1.0889463671552233</v>
+        <v>1.0974366641823772</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="13"/>
@@ -4896,7 +4903,7 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" si="12"/>
-        <v>1.104711792440082</v>
+        <v>1.117715622726533</v>
       </c>
       <c r="H41" s="1">
         <v>0.87939113406638802</v>
@@ -4969,22 +4976,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>38078</v>
       </c>
       <c r="B42" s="1">
-        <v>1.3791261817970899</v>
+        <v>1.7690650964325501</v>
       </c>
       <c r="C42" s="1">
         <v>17.553197082011799</v>
       </c>
       <c r="D42" s="1">
-        <v>1206.71875267012</v>
+        <v>1476.8770427040999</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="3"/>
-        <v>1.0804046254222179</v>
+        <v>1.0843627546166001</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="13"/>
@@ -4992,7 +4999,7 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" si="12"/>
-        <v>1.0990628445369208</v>
+        <v>1.1109086742780148</v>
       </c>
       <c r="H42" s="1">
         <v>0.89290821323802205</v>
@@ -5065,22 +5072,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>38108</v>
       </c>
       <c r="B43" s="1">
-        <v>1.3911979525295199</v>
+        <v>1.7805825712978001</v>
       </c>
       <c r="C43" s="1">
         <v>17.009523955654299</v>
       </c>
       <c r="D43" s="1">
-        <v>1218.1680834670799</v>
+        <v>1491.81939491716</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="3"/>
-        <v>1.0760075374562155</v>
+        <v>1.0750928687965824</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="13"/>
@@ -5088,7 +5095,7 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" si="12"/>
-        <v>1.095364667602444</v>
+        <v>1.1046097462067206</v>
       </c>
       <c r="H43" s="1">
         <v>0.90386871421543002</v>
@@ -5161,22 +5168,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>38139</v>
       </c>
       <c r="B44" s="1">
-        <v>1.40667981875921</v>
+        <v>1.7971808861162</v>
       </c>
       <c r="C44" s="1">
         <v>16.5104205644822</v>
       </c>
       <c r="D44" s="1">
-        <v>1232.2870999327999</v>
+        <v>1508.3578381034399</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="3"/>
-        <v>1.0784815429761807</v>
+        <v>1.0741763651529288</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="13"/>
@@ -5184,7 +5191,7 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" si="12"/>
-        <v>1.0971160741918544</v>
+        <v>1.1026074253413762</v>
       </c>
       <c r="H44" s="1">
         <v>0.90755942773224696</v>
@@ -5257,22 +5264,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>38169</v>
       </c>
       <c r="B45" s="1">
-        <v>1.4230954598377099</v>
+        <v>1.81749767001033</v>
       </c>
       <c r="C45" s="1">
         <v>16.107257501465</v>
       </c>
       <c r="D45" s="1">
-        <v>1247.2004531760999</v>
+        <v>1525.93859937509</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="3"/>
-        <v>1.0860977130645644</v>
+        <v>1.0812985555871251</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="13"/>
@@ -5280,7 +5287,7 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" si="12"/>
-        <v>1.1027783500919279</v>
+        <v>1.1056191294453845</v>
       </c>
       <c r="H45" s="1">
         <v>0.90242882674076497</v>
@@ -5353,22 +5360,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>38200</v>
       </c>
       <c r="B46" s="1">
-        <v>1.4384206376644999</v>
+        <v>1.8389104212179299</v>
       </c>
       <c r="C46" s="1">
         <v>15.825498939625099</v>
       </c>
       <c r="D46" s="1">
-        <v>1261.69705474702</v>
+        <v>1544.60344155352</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="3"/>
-        <v>1.0953880458281913</v>
+        <v>1.0925728742480052</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="13"/>
@@ -5376,7 +5383,7 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" si="12"/>
-        <v>1.1100800301091143</v>
+        <v>1.1133564237303557</v>
       </c>
       <c r="H46" s="1">
         <v>0.89022010612583102</v>
@@ -5449,22 +5456,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>38231</v>
       </c>
       <c r="B47" s="1">
-        <v>1.4554255145211199</v>
+        <v>1.8639026901167399</v>
       </c>
       <c r="C47" s="1">
         <v>15.660246352798699</v>
       </c>
       <c r="D47" s="1">
-        <v>1276.5942724225999</v>
+        <v>1565.96210112576</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="3"/>
-        <v>1.1055176146331369</v>
+        <v>1.1053404115837338</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="13"/>
@@ -5472,7 +5479,7 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" si="12"/>
-        <v>1.11796982854384</v>
+        <v>1.1251447270328978</v>
       </c>
       <c r="H47" s="1">
         <v>0.87672997906641403</v>
@@ -5545,22 +5552,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>38261</v>
       </c>
       <c r="B48" s="1">
-        <v>1.4780737002536399</v>
+        <v>1.8953405699463901</v>
       </c>
       <c r="C48" s="1">
         <v>15.506221466802399</v>
       </c>
       <c r="D48" s="1">
-        <v>1291.33687653889</v>
+        <v>1587.3579639084001</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="3"/>
-        <v>1.1169123873972924</v>
+        <v>1.1179382608688686</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="13"/>
@@ -5568,7 +5575,7 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" si="12"/>
-        <v>1.1248233735625215</v>
+        <v>1.1365131138377658</v>
       </c>
       <c r="H48" s="1">
         <v>0.86961178424630703</v>
@@ -5641,22 +5648,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>38292</v>
       </c>
       <c r="B49" s="1">
-        <v>1.5104608650472999</v>
+        <v>1.93899888848118</v>
       </c>
       <c r="C49" s="1">
         <v>15.2802326538672</v>
       </c>
       <c r="D49" s="1">
-        <v>1306.20790352019</v>
+        <v>1608.94511137688</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="3"/>
-        <v>1.1325990227970646</v>
+        <v>1.1335938570032733</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="13"/>
@@ -5664,7 +5671,7 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" si="12"/>
-        <v>1.1298303510272922</v>
+        <v>1.1453718330422122</v>
       </c>
       <c r="H49" s="1">
         <v>0.87382500497480198</v>
@@ -5737,22 +5744,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>38322</v>
       </c>
       <c r="B50" s="1">
-        <v>1.55275329905629</v>
+        <v>1.9959702102315</v>
       </c>
       <c r="C50" s="1">
         <v>15.0179045722988</v>
       </c>
       <c r="D50" s="1">
-        <v>1321.7420434063899</v>
+        <v>1631.2402168225501</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="3"/>
-        <v>1.1538116187978511</v>
+        <v>1.1544184900920278</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="13"/>
@@ -5760,7 +5767,7 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" si="12"/>
-        <v>1.1333534058389279</v>
+        <v>1.1508747784622884</v>
       </c>
       <c r="H50" s="1">
         <v>0.88918826124815498</v>
@@ -5833,22 +5840,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>38353</v>
       </c>
       <c r="B51" s="1">
-        <v>1.5999754720231401</v>
+        <v>2.05910833176929</v>
       </c>
       <c r="C51" s="1">
         <v>14.8432317611681</v>
       </c>
       <c r="D51" s="1">
-        <v>1337.55926286662</v>
+        <v>1653.49159838012</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="3"/>
-        <v>1.1794120786280471</v>
+        <v>1.1798598091662373</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="13"/>
@@ -5856,7 +5863,7 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" si="12"/>
-        <v>1.136415156753328</v>
+        <v>1.154137240849856</v>
       </c>
       <c r="H51" s="1">
         <v>0.91117945175342996</v>
@@ -5929,22 +5936,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>38384</v>
       </c>
       <c r="B52" s="1">
-        <v>1.6449994682250899</v>
+        <v>2.1184648898651002</v>
       </c>
       <c r="C52" s="1">
         <v>14.850047544583401</v>
       </c>
       <c r="D52" s="1">
-        <v>1353.0811480551599</v>
+        <v>1674.5202751765901</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="3"/>
-        <v>1.2054863237011999</v>
+        <v>1.2066286294730728</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="13"/>
@@ -5952,7 +5959,7 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" si="12"/>
-        <v>1.1395185416382496</v>
+        <v>1.1560928597123425</v>
       </c>
       <c r="H52" s="1">
         <v>0.93396398208032705</v>
@@ -6025,22 +6032,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>38412</v>
       </c>
       <c r="B53" s="1">
-        <v>1.68050852464023</v>
+        <v>2.16352237580577</v>
       </c>
       <c r="C53" s="1">
         <v>15.0235050915134</v>
       </c>
       <c r="D53" s="1">
-        <v>1367.4189405351799</v>
+        <v>1692.4159391667799</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="3"/>
-        <v>1.2256160856851495</v>
+        <v>1.2277498853589299</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="13"/>
@@ -6048,7 +6055,7 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" si="12"/>
-        <v>1.1422791730939228</v>
+        <v>1.1568061350687859</v>
       </c>
       <c r="H53" s="1">
         <v>0.95323496210969305</v>
@@ -6121,22 +6128,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>38443</v>
       </c>
       <c r="B54" s="1">
-        <v>1.70248555833232</v>
+        <v>2.1896018350004698</v>
       </c>
       <c r="C54" s="1">
         <v>15.2907132502307</v>
       </c>
       <c r="D54" s="1">
-        <v>1378.7251274796199</v>
+        <v>1704.4940362242401</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="3"/>
-        <v>1.2344668535796137</v>
+        <v>1.2377169384077291</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="13"/>
@@ -6144,7 +6151,7 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" si="12"/>
-        <v>1.1425405666638555</v>
+        <v>1.1541204764774344</v>
       </c>
       <c r="H54" s="1">
         <v>0.96570545937401797</v>
@@ -6217,22 +6224,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>38473</v>
       </c>
       <c r="B55" s="1">
-        <v>1.71306571523801</v>
+        <v>2.1996905355028802</v>
       </c>
       <c r="C55" s="1">
         <v>15.5716595124434</v>
       </c>
       <c r="D55" s="1">
-        <v>1385.8511486198399</v>
+        <v>1710.38762635218</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="3"/>
-        <v>1.2313601469318294</v>
+        <v>1.2353768766250519</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="13"/>
@@ -6240,7 +6247,7 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" si="12"/>
-        <v>1.137651829356348</v>
+        <v>1.1465111877347305</v>
       </c>
       <c r="H55" s="1">
         <v>0.970529050963298</v>
@@ -6313,22 +6320,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>38504</v>
       </c>
       <c r="B56" s="1">
-        <v>1.71931431218206</v>
+        <v>2.2038355092003199</v>
       </c>
       <c r="C56" s="1">
         <v>15.8180395266362</v>
       </c>
       <c r="D56" s="1">
-        <v>1390.8214816770701</v>
+        <v>1712.49901097468</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="3"/>
-        <v>1.2222499315434947</v>
+        <v>1.2262736189916428</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="13"/>
@@ -6336,7 +6343,7 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" si="12"/>
-        <v>1.1286505245027034</v>
+        <v>1.1353400152896878</v>
       </c>
       <c r="H56" s="1">
         <v>0.96927963845753096</v>
@@ -6409,22 +6416,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>38534</v>
       </c>
       <c r="B57" s="1">
-        <v>1.7294602548748601</v>
+        <v>2.21220989782669</v>
       </c>
       <c r="C57" s="1">
         <v>16.0175715056365</v>
       </c>
       <c r="D57" s="1">
-        <v>1396.70621473608</v>
+        <v>1715.32462726221</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="3"/>
-        <v>1.2152805652771095</v>
+        <v>1.2171734436468997</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="13"/>
@@ -6432,7 +6439,7 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" si="12"/>
-        <v>1.1198730814916329</v>
+        <v>1.1241111719466814</v>
       </c>
       <c r="H57" s="1">
         <v>0.96482669531239396</v>
@@ -6505,22 +6512,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>38565</v>
       </c>
       <c r="B58" s="1">
-        <v>1.7468383812077899</v>
+        <v>2.2304755987076401</v>
       </c>
       <c r="C58" s="1">
         <v>16.169026544296798</v>
       </c>
       <c r="D58" s="1">
-        <v>1405.2803315840899</v>
+        <v>1722.57335032221</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="3"/>
-        <v>1.2144141535983899</v>
+        <v>1.2129332527412469</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="13"/>
@@ -6528,7 +6535,7 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" si="12"/>
-        <v>1.1138017056446718</v>
+        <v>1.1152204533415337</v>
       </c>
       <c r="H58" s="1">
         <v>0.96140655994508695</v>
@@ -6601,22 +6608,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>38596</v>
       </c>
       <c r="B59" s="1">
-        <v>1.76846837241735</v>
+        <v>2.2566414103032901</v>
       </c>
       <c r="C59" s="1">
         <v>16.352203863223401</v>
       </c>
       <c r="D59" s="1">
-        <v>1414.3468349203799</v>
+        <v>1732.1554181461199</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="3"/>
-        <v>1.2150868284037406</v>
+        <v>1.2107077382682205</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="13"/>
@@ -6624,7 +6631,7 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" si="12"/>
-        <v>1.1079062984015793</v>
+        <v>1.1061285690764064</v>
       </c>
       <c r="H59" s="1">
         <v>0.96276976347273202</v>
@@ -6697,22 +6704,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>38626</v>
       </c>
       <c r="B60" s="1">
-        <v>1.7883593474324999</v>
+        <v>2.2835667957645698</v>
       </c>
       <c r="C60" s="1">
         <v>16.632725132076398</v>
       </c>
       <c r="D60" s="1">
-        <v>1423.2060888744099</v>
+        <v>1743.2201404612799</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="3"/>
-        <v>1.2099256939120251</v>
+        <v>1.2048319082987606</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="13"/>
@@ -6720,7 +6727,7 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" si="12"/>
-        <v>1.1021183664242307</v>
+        <v>1.0981896837995604</v>
       </c>
       <c r="H60" s="1">
         <v>0.96897814948382099</v>
@@ -6793,22 +6800,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>38657</v>
       </c>
       <c r="B61" s="1">
-        <v>1.8031468954296399</v>
+        <v>2.3052163999611901</v>
       </c>
       <c r="C61" s="1">
         <v>16.972290976231498</v>
       </c>
       <c r="D61" s="1">
-        <v>1432.0086300528501</v>
+        <v>1754.80483381874</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="3"/>
-        <v>1.1937726671079125</v>
+        <v>1.1888693766951401</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="13"/>
@@ -6816,7 +6823,7 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" si="12"/>
-        <v>1.0963098800685793</v>
+        <v>1.0906554993147268</v>
       </c>
       <c r="H61" s="1">
         <v>0.97961016245625498</v>
@@ -6889,22 +6896,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>38687</v>
       </c>
       <c r="B62" s="1">
-        <v>1.8119580283818499</v>
+        <v>2.3187117149629999</v>
       </c>
       <c r="C62" s="1">
         <v>17.239487474500802</v>
       </c>
       <c r="D62" s="1">
-        <v>1440.4758689165301</v>
+        <v>1763.5571970348301</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="3"/>
-        <v>1.1669323320601512</v>
+        <v>1.1616965539250543</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="13"/>
@@ -6912,7 +6919,7 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" si="12"/>
-        <v>1.0898313147428826</v>
+        <v>1.0811143440725222</v>
       </c>
       <c r="H62" s="1">
         <v>0.993457968744486</v>
@@ -6985,22 +6992,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>38718</v>
       </c>
       <c r="B63" s="1">
-        <v>1.81733889752666</v>
+        <v>2.3279102331756598</v>
       </c>
       <c r="C63" s="1">
         <v>17.3979035770883</v>
       </c>
       <c r="D63" s="1">
-        <v>1449.09728422172</v>
+        <v>1770.48224611878</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="3"/>
-        <v>1.1358542235829827</v>
+        <v>1.13054286520972</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="13"/>
@@ -7008,7 +7015,7 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" si="12"/>
-        <v>1.0833892182960587</v>
+        <v>1.0707536995369511</v>
       </c>
       <c r="H63" s="1">
         <v>1.00878844037695</v>
@@ -7081,22 +7088,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>38749</v>
       </c>
       <c r="B64" s="1">
-        <v>1.8220227413237999</v>
+        <v>2.3355730857154402</v>
       </c>
       <c r="C64" s="1">
         <v>17.4610614315291</v>
       </c>
       <c r="D64" s="1">
-        <v>1457.7436533697601</v>
+        <v>1776.87443496578</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="3"/>
-        <v>1.1076129667626662</v>
+        <v>1.1024837356941823</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="13"/>
@@ -7104,7 +7111,7 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" si="12"/>
-        <v>1.0773512405113588</v>
+        <v>1.0611244672916222</v>
       </c>
       <c r="H64" s="1">
         <v>1.02420415068818</v>
@@ -7177,22 +7184,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>38777</v>
       </c>
       <c r="B65" s="1">
-        <v>1.8285759175135401</v>
+        <v>2.3445951626224901</v>
       </c>
       <c r="C65" s="1">
         <v>17.426731360938401</v>
       </c>
       <c r="D65" s="1">
-        <v>1465.1737378979899</v>
+        <v>1782.9362235656799</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="3"/>
-        <v>1.0881086829982067</v>
+        <v>1.0836935124136549</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="13"/>
@@ -7200,7 +7207,7 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" si="12"/>
-        <v>1.0714885500449123</v>
+        <v>1.053485837792018</v>
       </c>
       <c r="H65" s="1">
         <v>1.03816201817919</v>
@@ -7273,22 +7280,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>38808</v>
       </c>
       <c r="B66" s="1">
-        <v>1.83996047833454</v>
+        <v>2.35863286617302</v>
       </c>
       <c r="C66" s="1">
         <v>17.309000803667601</v>
       </c>
       <c r="D66" s="1">
-        <v>1471.9619435100699</v>
+        <v>1790.5186797439401</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="3"/>
-        <v>1.08074953665797</v>
+        <v>1.0771971545102921</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="13"/>
@@ -7296,7 +7303,7 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" si="12"/>
-        <v>1.0676253838942442</v>
+        <v>1.0504693132926766</v>
       </c>
       <c r="H66" s="1">
         <v>1.0486420573039099</v>
@@ -7369,22 +7376,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>38838</v>
       </c>
       <c r="B67" s="1">
-        <v>1.85566803469062</v>
+        <v>2.3775313025358402</v>
       </c>
       <c r="C67" s="1">
         <v>17.114043652794798</v>
       </c>
       <c r="D67" s="1">
-        <v>1479.6960225923101</v>
+        <v>1800.76038371812</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="3"/>
-        <v>1.083243928230037</v>
+        <v>1.0808480848385809</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="13"/>
@@ -7392,7 +7399,7 @@
       </c>
       <c r="G67" s="1">
         <f t="shared" si="12"/>
-        <v>1.067716416778187</v>
+        <v>1.0528375883767833</v>
       </c>
       <c r="H67" s="1">
         <v>1.0548476713321799</v>
@@ -7465,22 +7472,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>38869</v>
       </c>
       <c r="B68" s="1">
-        <v>1.8749075473166701</v>
+        <v>2.4008462601566301</v>
       </c>
       <c r="C68" s="1">
         <v>16.855205543531198</v>
       </c>
       <c r="D68" s="1">
-        <v>1489.2781203488701</v>
+        <v>1814.08068825123</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="3"/>
-        <v>1.0904972604672496</v>
+        <v>1.0893944898037318</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="13"/>
@@ -7488,7 +7495,7 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" si="12"/>
-        <v>1.0707902775222307</v>
+        <v>1.0593178020107201</v>
       </c>
       <c r="H68" s="1">
         <v>1.0567508566946699</v>
@@ -7561,22 +7568,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>38899</v>
       </c>
       <c r="B69" s="1">
-        <v>1.8957144465858</v>
+        <v>2.4236333966208399</v>
       </c>
       <c r="C69" s="1">
         <v>16.5555941484123</v>
       </c>
       <c r="D69" s="1">
-        <v>1501.1947293478299</v>
+        <v>1830.2659350144199</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="3"/>
-        <v>1.0961306807961133</v>
+        <v>1.0955711747795069</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="13"/>
@@ -7584,7 +7591,7 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" si="12"/>
-        <v>1.0748106606166237</v>
+        <v>1.0670084868633087</v>
       </c>
       <c r="H69" s="1">
         <v>1.05644295672304</v>
@@ -7657,22 +7664,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>38930</v>
       </c>
       <c r="B70" s="1">
-        <v>1.9180540760531599</v>
+        <v>2.44521862195925</v>
       </c>
       <c r="C70" s="1">
         <v>16.214763456287699</v>
       </c>
       <c r="D70" s="1">
-        <v>1516.9995555871899</v>
+        <v>1849.5048189203001</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="3"/>
-        <v>1.0980146169715992</v>
+        <v>1.0962767866082168</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="13"/>
@@ -7680,7 +7687,7 @@
       </c>
       <c r="G70" s="1">
         <f t="shared" si="12"/>
-        <v>1.0794995998251575</v>
+        <v>1.0736871196656719</v>
       </c>
       <c r="H70" s="1">
         <v>1.0560875155793501</v>
@@ -7753,22 +7760,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>38961</v>
       </c>
       <c r="B71" s="1">
-        <v>1.9417471685339001</v>
+        <v>2.4662018131977801</v>
       </c>
       <c r="C71" s="1">
         <v>15.772749545459501</v>
       </c>
       <c r="D71" s="1">
-        <v>1537.8889039077601</v>
+        <v>1874.1468107322501</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="3"/>
-        <v>1.0979824116841244</v>
+        <v>1.0928638471037919</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="13"/>
@@ -7776,7 +7783,7 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" si="12"/>
-        <v>1.0873492031354071</v>
+        <v>1.0819738177640548</v>
       </c>
       <c r="H71" s="1">
         <v>1.05666127820189</v>
@@ -7849,22 +7856,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>38991</v>
       </c>
       <c r="B72" s="1">
-        <v>1.96254452917654</v>
+        <v>2.4851894503701901</v>
       </c>
       <c r="C72" s="1">
         <v>15.2702076642802</v>
       </c>
       <c r="D72" s="1">
-        <v>1562.2755780121399</v>
+        <v>1903.16092475806</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="3"/>
-        <v>1.0973994303740537</v>
+        <v>1.0882928649074679</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="13"/>
@@ -7872,7 +7879,7 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" si="12"/>
-        <v>1.0977156367056564</v>
+        <v>1.0917501929816262</v>
       </c>
       <c r="H72" s="1">
         <v>1.0598047985714001</v>
@@ -7945,22 +7952,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>39022</v>
       </c>
       <c r="B73" s="1">
-        <v>1.9758045200074701</v>
+        <v>2.5007197174998801</v>
       </c>
       <c r="C73" s="1">
         <v>14.893328894585901</v>
       </c>
       <c r="D73" s="1">
-        <v>1583.78763075694</v>
+        <v>1928.7499013341101</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="3"/>
-        <v>1.0957534990717939</v>
+        <v>1.0848090953812326</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="13"/>
@@ -7968,7 +7975,7 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" si="12"/>
-        <v>1.1059902835211881</v>
+        <v>1.0991250218617403</v>
       </c>
       <c r="H73" s="1">
         <v>1.0645301889605401</v>
@@ -8041,22 +8048,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>39052</v>
       </c>
       <c r="B74" s="1">
-        <v>1.98009023635438</v>
+        <v>2.51330206102043</v>
       </c>
       <c r="C74" s="1">
         <v>14.7691681907912</v>
       </c>
       <c r="D74" s="1">
-        <v>1598.0953667300901</v>
+        <v>1947.62924056371</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="3"/>
-        <v>1.0927903435614779</v>
+        <v>1.0839217505141794</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="13"/>
@@ -8064,7 +8071,7 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" si="12"/>
-        <v>1.1094218245614313</v>
+        <v>1.1043754315643239</v>
       </c>
       <c r="H74" s="1">
         <v>1.06998598958623</v>
@@ -8137,22 +8144,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>39083</v>
       </c>
       <c r="B75" s="1">
-        <v>1.9783346780312201</v>
+        <v>2.52513280387307</v>
       </c>
       <c r="C75" s="1">
         <v>14.9333130018875</v>
       </c>
       <c r="D75" s="1">
-        <v>1604.8778267662501</v>
+        <v>1958.94960693702</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="3"/>
-        <v>1.0885887495852702</v>
+        <v>1.0847208659022756</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="13"/>
@@ -8160,7 +8167,7 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" si="12"/>
-        <v>1.1075017835177274</v>
+        <v>1.1064497321175599</v>
       </c>
       <c r="H75" s="1">
         <v>1.0748221829967901</v>
@@ -8233,22 +8240,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>39114</v>
       </c>
       <c r="B76" s="1">
-        <v>1.97645726399032</v>
+        <v>2.5399411620624899</v>
       </c>
       <c r="C76" s="1">
         <v>15.363641428595701</v>
       </c>
       <c r="D76" s="1">
-        <v>1607.0572855893799</v>
+        <v>1964.31919240757</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="3"/>
-        <v>1.0847599314563521</v>
+        <v>1.0875023254878993</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="13"/>
@@ -8256,7 +8263,7 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" si="12"/>
-        <v>1.1024279075916141</v>
+        <v>1.1054912793797946</v>
       </c>
       <c r="H76" s="1">
         <v>1.07963165051621</v>
@@ -8329,22 +8336,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>39142</v>
       </c>
       <c r="B77" s="1">
-        <v>1.97961496046546</v>
+        <v>2.5589242163214299</v>
       </c>
       <c r="C77" s="1">
         <v>15.982058545831601</v>
       </c>
       <c r="D77" s="1">
-        <v>1608.66004595252</v>
+        <v>1967.72354914433</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="3"/>
-        <v>1.0825992738421819</v>
+        <v>1.091414098738994</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="13"/>
@@ -8352,7 +8359,7 @@
       </c>
       <c r="G77" s="1">
         <f t="shared" si="12"/>
-        <v>1.0979312584870533</v>
+        <v>1.1036421399353789</v>
       </c>
       <c r="H77" s="1">
         <v>1.0863365591434899</v>
@@ -8425,22 +8432,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>39173</v>
       </c>
       <c r="B78" s="1">
-        <v>1.98902341658561</v>
+        <v>2.5778283016803001</v>
       </c>
       <c r="C78" s="1">
         <v>16.647597108317498</v>
       </c>
       <c r="D78" s="1">
-        <v>1611.6068620286201</v>
+        <v>1970.6246730394801</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="3"/>
-        <v>1.0810142065583908</v>
+        <v>1.0929332575030779</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="13"/>
@@ -8448,7 +8455,7 @@
       </c>
       <c r="G78" s="1">
         <f t="shared" si="12"/>
-        <v>1.094869924548151</v>
+        <v>1.1005887262350689</v>
       </c>
       <c r="H78" s="1">
         <v>1.09684400952921</v>
@@ -8521,22 +8528,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>39203</v>
       </c>
       <c r="B79" s="1">
-        <v>2.00347169276476</v>
+        <v>2.5928883389847499</v>
       </c>
       <c r="C79" s="1">
         <v>17.242283291527301</v>
       </c>
       <c r="D79" s="1">
-        <v>1615.39251906903</v>
+        <v>1973.28353770433</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="3"/>
-        <v>1.0796498378540977</v>
+        <v>1.09058010559912</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="13"/>
@@ -8544,7 +8551,7 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" si="12"/>
-        <v>1.0917056573815684</v>
+        <v>1.0958057249293729</v>
       </c>
       <c r="H79" s="1">
         <v>1.111034983218</v>
@@ -8617,22 +8624,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>39234</v>
       </c>
       <c r="B80" s="1">
-        <v>2.0196402155358801</v>
+        <v>2.60486776399941</v>
       </c>
       <c r="C80" s="1">
         <v>17.6981644384066</v>
       </c>
       <c r="D80" s="1">
-        <v>1620.6116100936899</v>
+        <v>1976.41696658158</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" ref="E80:E143" si="14">B80/B68</f>
-        <v>1.0771945627006241</v>
+        <v>1.0849789956269293</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="13"/>
@@ -8640,7 +8647,7 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" si="12"/>
-        <v>1.0881860063277196</v>
+        <v>1.0894868014315515</v>
       </c>
       <c r="H80" s="1">
         <v>1.12686933103248</v>
@@ -8713,22 +8720,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>39264</v>
       </c>
       <c r="B81" s="1">
-        <v>2.0340085680574198</v>
+        <v>2.6146323475009998</v>
       </c>
       <c r="C81" s="1">
         <v>17.987176164874601</v>
       </c>
       <c r="D81" s="1">
-        <v>1628.97989382835</v>
+        <v>1981.1451310084699</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="14"/>
-        <v>1.0729509245027324</v>
+        <v>1.0788068654056595</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="13"/>
@@ -8736,7 +8743,7 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" ref="G81:G144" si="22">D81/D69</f>
-        <v>1.0851223109050179</v>
+        <v>1.0824356685592038</v>
       </c>
       <c r="H81" s="1">
         <v>1.14328533029402</v>
@@ -8809,22 +8816,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>39295</v>
       </c>
       <c r="B82" s="1">
-        <v>2.0462993370901201</v>
+        <v>2.6222543444661799</v>
       </c>
       <c r="C82" s="1">
         <v>18.153407666161598</v>
       </c>
       <c r="D82" s="1">
-        <v>1640.3243439567</v>
+        <v>1987.47195182159</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" si="14"/>
-        <v>1.0668621717385856</v>
+        <v>1.0724007746861828</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="13"/>
@@ -8832,7 +8839,7 @@
       </c>
       <c r="G82" s="1">
         <f t="shared" si="22"/>
-        <v>1.0812952040198682</v>
+        <v>1.0745967955800364</v>
       </c>
       <c r="H82" s="1">
         <v>1.15741210297363</v>
@@ -8905,22 +8912,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>39326</v>
       </c>
       <c r="B83" s="1">
-        <v>2.0575708215385702</v>
+        <v>2.62240264335929</v>
       </c>
       <c r="C83" s="1">
         <v>18.213432343484602</v>
       </c>
       <c r="D83" s="1">
-        <v>1652.2674822071399</v>
+        <v>1993.0151549416901</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="14"/>
-        <v>1.0596491937166679</v>
+        <v>1.0633365969182276</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="13"/>
@@ -8928,7 +8935,7 @@
       </c>
       <c r="G83" s="1">
         <f t="shared" si="22"/>
-        <v>1.0743737587342914</v>
+        <v>1.0634253109354848</v>
       </c>
       <c r="H83" s="1">
         <v>1.1669809830689599</v>
@@ -9001,22 +9008,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>39356</v>
       </c>
       <c r="B84" s="1">
-        <v>2.0711809728594401</v>
+        <v>2.6109798193930698</v>
       </c>
       <c r="C84" s="1">
         <v>18.151695695991801</v>
       </c>
       <c r="D84" s="1">
-        <v>1663.76103771363</v>
+        <v>1996.2005551118</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="14"/>
-        <v>1.0553548936433472</v>
+        <v>1.0506160079683833</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="13"/>
@@ -9024,7 +9031,7 @@
       </c>
       <c r="G84" s="1">
         <f t="shared" si="22"/>
-        <v>1.0649600244219535</v>
+        <v>1.0488868960808282</v>
       </c>
       <c r="H84" s="1">
         <v>1.17294228996943</v>
@@ -9097,22 +9104,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>39387</v>
       </c>
       <c r="B85" s="1">
-        <v>2.08854890337338</v>
+        <v>2.58372172843751</v>
       </c>
       <c r="C85" s="1">
         <v>17.921918637578699</v>
       </c>
       <c r="D85" s="1">
-        <v>1676.5675049802201</v>
+        <v>1998.3632690192001</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="14"/>
-        <v>1.0570625192038146</v>
+        <v>1.0331912490459394</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="13"/>
@@ -9120,7 +9127,7 @@
       </c>
       <c r="G85" s="1">
         <f t="shared" si="22"/>
-        <v>1.0585810069617339</v>
+        <v>1.0360924802313347</v>
       </c>
       <c r="H85" s="1">
         <v>1.1782572412652601</v>
@@ -9193,22 +9200,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>39417</v>
       </c>
       <c r="B86" s="1">
-        <v>2.1074846030155201</v>
+        <v>2.5387778985818001</v>
       </c>
       <c r="C86" s="1">
         <v>17.551924541091001</v>
       </c>
       <c r="D86" s="1">
-        <v>1690.9932703586101</v>
+        <v>1999.43275268712</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="14"/>
-        <v>1.0643376571037948</v>
+        <v>1.0101364010146185</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="13"/>
@@ -9216,7 +9223,7 @@
       </c>
       <c r="G86" s="1">
         <f t="shared" si="22"/>
-        <v>1.0581303879371111</v>
+        <v>1.0265982411048709</v>
       </c>
       <c r="H86" s="1">
         <v>1.18328081676302</v>
@@ -9289,22 +9296,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>39448</v>
       </c>
       <c r="B87" s="1">
-        <v>2.1252739472267801</v>
+        <v>2.4816782158827202</v>
       </c>
       <c r="C87" s="1">
         <v>17.100866096833801</v>
       </c>
       <c r="D87" s="1">
-        <v>1705.83010288491</v>
+        <v>1998.4473024819399</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="14"/>
-        <v>1.0742742220652925</v>
+        <v>0.98279116729080596</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="13"/>
@@ -9312,7 +9319,7 @@
       </c>
       <c r="G87" s="1">
         <f t="shared" si="22"/>
-        <v>1.0629034026359963</v>
+        <v>1.0201626909671646</v>
       </c>
       <c r="H87" s="1">
         <v>1.1881878968300099</v>
@@ -9385,22 +9392,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>39479</v>
       </c>
       <c r="B88" s="1">
-        <v>2.1391739636690801</v>
+        <v>2.4224306600538901</v>
       </c>
       <c r="C88" s="1">
         <v>16.6512669273027</v>
       </c>
       <c r="D88" s="1">
-        <v>1719.5048673916001</v>
+        <v>1996.7646816568499</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="14"/>
-        <v>1.0823274566282537</v>
+        <v>0.953734951122577</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="13"/>
@@ -9408,7 +9415,7 @@
       </c>
       <c r="G88" s="1">
         <f t="shared" si="22"/>
-        <v>1.0699711098107996</v>
+        <v>1.0165174221046596</v>
       </c>
       <c r="H88" s="1">
         <v>1.1939956448009701</v>
@@ -9481,22 +9488,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>39508</v>
       </c>
       <c r="B89" s="1">
-        <v>2.1480908230390101</v>
+        <v>2.3727642561297602</v>
       </c>
       <c r="C89" s="1">
         <v>16.267853898197099</v>
       </c>
       <c r="D89" s="1">
-        <v>1732.4501864474901</v>
+        <v>1996.9303720294499</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="14"/>
-        <v>1.0851053694471662</v>
+        <v>0.92725069425491502</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="13"/>
@@ -9504,7 +9511,7 @@
       </c>
       <c r="G89" s="1">
         <f t="shared" si="22"/>
-        <v>1.0769523311071429</v>
+        <v>1.014842950320852</v>
       </c>
       <c r="H89" s="1">
         <v>1.1986767046983999</v>
@@ -9577,22 +9584,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>39539</v>
       </c>
       <c r="B90" s="1">
-        <v>2.1522463181022502</v>
+        <v>2.3392846796362399</v>
       </c>
       <c r="C90" s="1">
         <v>15.945473694601599</v>
       </c>
       <c r="D90" s="1">
-        <v>1745.9059749195901</v>
+        <v>2001.8981538528601</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="14"/>
-        <v>1.0820618300194933</v>
+        <v>0.90746333963027292</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="13"/>
@@ -9600,7 +9607,7 @@
       </c>
       <c r="G90" s="1">
         <f t="shared" si="22"/>
-        <v>1.0833324280599799</v>
+        <v>1.0158698311460517</v>
       </c>
       <c r="H90" s="1">
         <v>1.2034442630890001</v>
@@ -9673,22 +9680,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>39569</v>
       </c>
       <c r="B91" s="1">
-        <v>2.1535988245979798</v>
+        <v>2.3225568311634501</v>
       </c>
       <c r="C91" s="1">
         <v>15.515485929018199</v>
       </c>
       <c r="D91" s="1">
-        <v>1759.2802537810301</v>
+        <v>2011.9326344133101</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="14"/>
-        <v>1.0749334928840679</v>
+        <v>0.89574116873573173</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="13"/>
@@ -9696,7 +9703,7 @@
       </c>
       <c r="G91" s="1">
         <f t="shared" si="22"/>
-        <v>1.0890729237714463</v>
+        <v>1.0195861851429338</v>
       </c>
       <c r="H91" s="1">
         <v>1.2086865386389101</v>
@@ -9769,22 +9776,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>39600</v>
       </c>
       <c r="B92" s="1">
-        <v>2.1533065029548601</v>
+        <v>2.3144766734966198</v>
       </c>
       <c r="C92" s="1">
         <v>14.821112245893501</v>
       </c>
       <c r="D92" s="1">
-        <v>1768.43098392718</v>
+        <v>2020.18634066597</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="14"/>
-        <v>1.0661832173823662</v>
+        <v>0.88851983409056612</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="13"/>
@@ -9792,7 +9799,7 @@
       </c>
       <c r="G92" s="1">
         <f t="shared" si="22"/>
-        <v>1.0912120911098153</v>
+        <v>1.0221458198469595</v>
       </c>
       <c r="H92" s="1">
         <v>1.21490361827543</v>
@@ -9865,22 +9872,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>39630</v>
       </c>
       <c r="B93" s="1">
-        <v>2.1501069769072698</v>
+        <v>2.3038892524548502</v>
       </c>
       <c r="C93" s="1">
         <v>13.805273140236499</v>
       </c>
       <c r="D93" s="1">
-        <v>1766.9380690569601</v>
+        <v>2017.4176215867101</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" si="14"/>
-        <v>1.0570786233023246</v>
+        <v>0.88115227927048712</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="13"/>
@@ -9888,7 +9895,7 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" si="22"/>
-        <v>1.0846899189801462</v>
+        <v>1.0183088507805464</v>
       </c>
       <c r="H93" s="1">
         <v>1.2205731556731101</v>
@@ -9961,22 +9968,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>39661</v>
       </c>
       <c r="B94" s="1">
-        <v>2.13916568988585</v>
+        <v>2.2821792185243801</v>
       </c>
       <c r="C94" s="1">
         <v>12.519462109679401</v>
       </c>
       <c r="D94" s="1">
-        <v>1749.9539892467601</v>
+        <v>1995.71687284464</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" si="14"/>
-        <v>1.0453825846065061</v>
+        <v>0.87031192200731011</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="13"/>
@@ -9984,7 +9991,7 @@
       </c>
       <c r="G94" s="1">
         <f t="shared" si="22"/>
-        <v>1.0668341268566541</v>
+        <v>1.0041484464802097</v>
       </c>
       <c r="H94" s="1">
         <v>1.22607304241884</v>
@@ -10057,22 +10064,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>39692</v>
       </c>
       <c r="B95" s="1">
-        <v>2.11731302660464</v>
+        <v>2.2472930401578801</v>
       </c>
       <c r="C95" s="1">
         <v>11.1317651099177</v>
       </c>
       <c r="D95" s="1">
-        <v>1719.4844485234501</v>
+        <v>1955.56637227648</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" si="14"/>
-        <v>1.0290353092300351</v>
+        <v>0.85695956944243479</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="13"/>
@@ -10080,7 +10087,7 @@
       </c>
       <c r="G95" s="1">
         <f t="shared" si="22"/>
-        <v>1.0406816493335087</v>
+        <v>0.9812099859991753</v>
       </c>
       <c r="H95" s="1">
         <v>1.2332923525044199</v>
@@ -10153,22 +10160,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>39722</v>
       </c>
       <c r="B96" s="1">
-        <v>2.0855616746150001</v>
+        <v>2.20554851484619</v>
       </c>
       <c r="C96" s="1">
         <v>9.8648201980816097</v>
       </c>
       <c r="D96" s="1">
-        <v>1681.8866852014901</v>
+        <v>1905.21678080279</v>
       </c>
       <c r="E96" s="1">
         <f t="shared" si="14"/>
-        <v>1.0069432376716487</v>
+        <v>0.84472062880933196</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" ref="F96:F159" si="23">C96/C84</f>
@@ -10176,7 +10183,7 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" si="22"/>
-        <v>1.0108943815109221</v>
+        <v>0.95442152639622213</v>
       </c>
       <c r="H96" s="1">
         <v>1.2400163094648899</v>
@@ -10249,22 +10256,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>39753</v>
       </c>
       <c r="B97" s="1">
-        <v>2.04965736652776</v>
+        <v>2.1676328844439401</v>
       </c>
       <c r="C97" s="1">
         <v>8.8453036591851895</v>
       </c>
       <c r="D97" s="1">
-        <v>1645.03832060171</v>
+        <v>1856.9386912195801</v>
       </c>
       <c r="E97" s="1">
         <f t="shared" si="14"/>
-        <v>0.9813786802967347</v>
+        <v>0.83895756287764123</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="23"/>
@@ -10272,7 +10279,7 @@
       </c>
       <c r="G97" s="1">
         <f t="shared" si="22"/>
-        <v>0.981194205252784</v>
+        <v>0.92922979520683868</v>
       </c>
       <c r="H97" s="1">
         <v>1.2447717869103201</v>
@@ -10345,22 +10352,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:28">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>39783</v>
       </c>
       <c r="B98" s="1">
-        <v>2.01818205136414</v>
+        <v>2.14331114896006</v>
       </c>
       <c r="C98" s="1">
         <v>8.1425008923113396</v>
       </c>
       <c r="D98" s="1">
-        <v>1616.6402404929399</v>
+        <v>1821.61405427401</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" si="14"/>
-        <v>0.95762600043502077</v>
+        <v>0.84422948149869514</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="23"/>
@@ -10368,7 +10375,7 @@
       </c>
       <c r="G98" s="1">
         <f t="shared" si="22"/>
-        <v>0.95602996702056531</v>
+        <v>0.91106542684462277</v>
       </c>
       <c r="H98" s="1">
         <v>1.25080439857576</v>
@@ -10441,22 +10448,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:28">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>39814</v>
       </c>
       <c r="B99" s="1">
-        <v>1.9993459392303601</v>
+        <v>2.1381234203127</v>
       </c>
       <c r="C99" s="1">
         <v>7.7606264130802698</v>
       </c>
       <c r="D99" s="1">
-        <v>1601.55799942669</v>
+        <v>1805.8421225898801</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" si="14"/>
-        <v>0.94074739957136322</v>
+        <v>0.86156352045512097</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="23"/>
@@ -10464,7 +10471,7 @@
       </c>
       <c r="G99" s="1">
         <f t="shared" si="22"/>
-        <v>0.93887310155807757</v>
+        <v>0.90362258756943103</v>
       </c>
       <c r="H99" s="1">
         <v>1.2579995252157601</v>
@@ -10537,22 +10544,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:28">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>39845</v>
       </c>
       <c r="B100" s="1">
-        <v>1.9980655141469199</v>
+        <v>2.1519204336782498</v>
       </c>
       <c r="C100" s="1">
         <v>7.6499365501400698</v>
       </c>
       <c r="D100" s="1">
-        <v>1600.5663266123499</v>
+        <v>1809.4348559196201</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" si="14"/>
-        <v>0.93403601019894</v>
+        <v>0.88833107554474955</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="23"/>
@@ -10560,7 +10567,7 @@
       </c>
       <c r="G100" s="1">
         <f t="shared" si="22"/>
-        <v>0.9308297737128981</v>
+        <v>0.90618332372456145</v>
       </c>
       <c r="H100" s="1">
         <v>1.2623881786856199</v>
@@ -10633,22 +10640,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:28">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>39873</v>
       </c>
       <c r="B101" s="1">
-        <v>2.0152761496832898</v>
+        <v>2.1805447109677001</v>
       </c>
       <c r="C101" s="1">
         <v>7.7647462433784202</v>
       </c>
       <c r="D101" s="1">
-        <v>1612.2233767790001</v>
+        <v>1828.7930672339701</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" si="14"/>
-        <v>0.93817082968222876</v>
+        <v>0.91898919386302991</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="23"/>
@@ -10656,7 +10663,7 @@
       </c>
       <c r="G101" s="1">
         <f t="shared" si="22"/>
-        <v>0.93060302073387546</v>
+        <v>0.91580211951776547</v>
       </c>
       <c r="H101" s="1">
         <v>1.26466934394871</v>
@@ -10729,22 +10736,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>39904</v>
       </c>
       <c r="B102" s="1">
-        <v>2.0474704055848298</v>
+        <v>2.2181969287810599</v>
       </c>
       <c r="C102" s="1">
         <v>8.1015154094454598</v>
       </c>
       <c r="D102" s="1">
-        <v>1632.6387772338401</v>
+        <v>1857.4065834384501</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" si="14"/>
-        <v>0.95131788046927324</v>
+        <v>0.94823727445006434</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="23"/>
@@ -10752,7 +10759,7 @@
       </c>
       <c r="G102" s="1">
         <f t="shared" si="22"/>
-        <v>0.93512411360470504</v>
+        <v>0.92782271658709459</v>
       </c>
       <c r="H102" s="1">
         <v>1.2628825210758701</v>
@@ -10825,22 +10832,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:28">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>39934</v>
       </c>
       <c r="B103" s="1">
-        <v>2.0884029971701201</v>
+        <v>2.2585289802668198</v>
       </c>
       <c r="C103" s="1">
         <v>8.76432785018876</v>
       </c>
       <c r="D103" s="1">
-        <v>1659.8820250676399</v>
+        <v>1890.57555110881</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" si="14"/>
-        <v>0.96972703240584746</v>
+        <v>0.97243217042635011</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="23"/>
@@ -10848,7 +10855,7 @@
       </c>
       <c r="G103" s="1">
         <f t="shared" si="22"/>
-        <v>0.94350062845316185</v>
+        <v>0.93968133861505332</v>
       </c>
       <c r="H103" s="1">
         <v>1.25832597274147</v>
@@ -10921,22 +10928,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>39965</v>
       </c>
       <c r="B104" s="1">
-        <v>2.13039426893913</v>
+        <v>2.2949470946463202</v>
       </c>
       <c r="C104" s="1">
         <v>9.8026049483109094</v>
       </c>
       <c r="D104" s="1">
-        <v>1690.8288506674401</v>
+        <v>1925.1239429360701</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="14"/>
-        <v>0.98935951106621889</v>
+        <v>0.9915619893369696</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="23"/>
@@ -10944,7 +10951,7 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" si="22"/>
-        <v>0.95611808774837914</v>
+        <v>0.95294374790269998</v>
       </c>
       <c r="H104" s="1">
         <v>1.2556984842198</v>
@@ -11017,22 +11024,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:28">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>39995</v>
       </c>
       <c r="B105" s="1">
-        <v>2.1691862794876902</v>
+        <v>2.3277272156622901</v>
       </c>
       <c r="C105" s="1">
         <v>11.198954010160801</v>
       </c>
       <c r="D105" s="1">
-        <v>1723.2190718311399</v>
+        <v>1959.4859721047501</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="14"/>
-        <v>1.0088736526997666</v>
+        <v>1.0103468355443039</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="23"/>
@@ -11040,7 +11047,7 @@
       </c>
       <c r="G105" s="1">
         <f t="shared" si="22"/>
-        <v>0.97525719888464812</v>
+        <v>0.97128425524686535</v>
       </c>
       <c r="H105" s="1">
         <v>1.2569850270677601</v>
@@ -11113,22 +11120,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:28">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>40026</v>
       </c>
       <c r="B106" s="1">
-        <v>2.2032457768480098</v>
+        <v>2.3584627966612102</v>
       </c>
       <c r="C106" s="1">
         <v>12.796955170316901</v>
       </c>
       <c r="D106" s="1">
-        <v>1756.2178949065899</v>
+        <v>1993.31843121267</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="14"/>
-        <v>1.0299556445137166</v>
+        <v>1.0334257614466202</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="23"/>
@@ -11136,7 +11143,7 @@
       </c>
       <c r="G106" s="1">
         <f t="shared" si="22"/>
-        <v>1.0035794687736481</v>
+        <v>0.99879820546461018</v>
       </c>
       <c r="H106" s="1">
         <v>1.2625347760969401</v>
@@ -11209,22 +11216,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>40057</v>
       </c>
       <c r="B107" s="1">
-        <v>2.2330443178507098</v>
+        <v>2.38821146421206</v>
       </c>
       <c r="C107" s="1">
         <v>14.287332729326801</v>
       </c>
       <c r="D107" s="1">
-        <v>1786.6872355609</v>
+        <v>2024.9551704493001</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="14"/>
-        <v>1.0546595093837676</v>
+        <v>1.062705851678462</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="23"/>
@@ -11232,7 +11239,7 @@
       </c>
       <c r="G107" s="1">
         <f t="shared" si="22"/>
-        <v>1.0390831025515572</v>
+        <v>1.0354827118918211</v>
       </c>
       <c r="H107" s="1">
         <v>1.2707271539593299</v>
@@ -11305,22 +11312,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:28">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>40087</v>
       </c>
       <c r="B108" s="1">
-        <v>2.26006935339035</v>
+        <v>2.4175188726113399</v>
       </c>
       <c r="C108" s="1">
         <v>15.407789288566599</v>
       </c>
       <c r="D108" s="1">
-        <v>1810.7492596038001</v>
+        <v>2051.1034302810599</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="14"/>
-        <v>1.0836741875818965</v>
+        <v>1.0961077737979081</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="23"/>
@@ -11328,7 +11335,7 @@
       </c>
       <c r="G108" s="1">
         <f t="shared" si="22"/>
-        <v>1.0766178694059121</v>
+        <v>1.0765722047738833</v>
       </c>
       <c r="H108" s="1">
         <v>1.2823272890514701</v>
@@ -11401,22 +11408,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:28">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>40118</v>
       </c>
       <c r="B109" s="1">
-        <v>2.2865200876931802</v>
+        <v>2.4475083951638199</v>
       </c>
       <c r="C109" s="1">
         <v>16.104432755526702</v>
       </c>
       <c r="D109" s="1">
-        <v>1828.21007492182</v>
+        <v>2070.3523788606499</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="14"/>
-        <v>1.1155621056638747</v>
+        <v>1.1291157339088238</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="23"/>
@@ -11424,7 +11431,7 @@
       </c>
       <c r="G109" s="1">
         <f t="shared" si="22"/>
-        <v>1.1113480166547798</v>
+        <v>1.1149276972094897</v>
       </c>
       <c r="H109" s="1">
         <v>1.29567661015545</v>
@@ -11497,22 +11504,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:28">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>40148</v>
       </c>
       <c r="B110" s="1">
-        <v>2.3136396381773601</v>
+        <v>2.4786083076647398</v>
       </c>
       <c r="C110" s="1">
         <v>16.511085390424299</v>
       </c>
       <c r="D110" s="1">
-        <v>1841.78973500903</v>
+        <v>2085.5144442322598</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" si="14"/>
-        <v>1.1463978864609925</v>
+        <v>1.156438862769583</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="23"/>
@@ -11520,7 +11527,7 @@
       </c>
       <c r="G110" s="1">
         <f t="shared" si="22"/>
-        <v>1.1392700050862512</v>
+        <v>1.1448717357768878</v>
       </c>
       <c r="H110" s="1">
         <v>1.3083999007176501</v>
@@ -11593,22 +11600,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:28">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>40179</v>
       </c>
       <c r="B111" s="1">
-        <v>2.3404846560511801</v>
+        <v>2.5089736601253598</v>
       </c>
       <c r="C111" s="1">
         <v>16.701673375340601</v>
       </c>
       <c r="D111" s="1">
-        <v>1854.58724825478</v>
+        <v>2099.7649638001799</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" si="14"/>
-        <v>1.1706251580214977</v>
+        <v>1.1734466010191418</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="23"/>
@@ -11616,7 +11623,7 @@
       </c>
       <c r="G111" s="1">
         <f t="shared" si="22"/>
-        <v>1.1579894383585652</v>
+        <v>1.1627622024835511</v>
       </c>
       <c r="H111" s="1">
         <v>1.32083218089546</v>
@@ -11689,22 +11696,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:28">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>40210</v>
       </c>
       <c r="B112" s="1">
-        <v>2.3649865639010001</v>
+        <v>2.53533552210857</v>
       </c>
       <c r="C112" s="1">
         <v>16.7021463889396</v>
       </c>
       <c r="D112" s="1">
-        <v>1867.61453710554</v>
+        <v>2113.4237174636201</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" si="14"/>
-        <v>1.1836381475763262</v>
+        <v>1.178173450295722</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="23"/>
@@ -11712,7 +11719,7 @@
       </c>
       <c r="G112" s="1">
         <f t="shared" si="22"/>
-        <v>1.1668460757002217</v>
+        <v>1.1680021032807517</v>
       </c>
       <c r="H112" s="1">
         <v>1.3351873188366301</v>
@@ -11785,22 +11792,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:28">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>40238</v>
       </c>
       <c r="B113" s="1">
-        <v>2.3848596987235799</v>
+        <v>2.5544843288710202</v>
       </c>
       <c r="C113" s="1">
         <v>16.548854434158802</v>
       </c>
       <c r="D113" s="1">
-        <v>1879.5980588428599</v>
+        <v>2124.8310261932102</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="14"/>
-        <v>1.183391020182704</v>
+        <v>1.1714890852833604</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="23"/>
@@ -11808,7 +11815,7 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="22"/>
-        <v>1.1658422064304994</v>
+        <v>1.1618761380187177</v>
       </c>
       <c r="H113" s="1">
         <v>1.3510574558687201</v>
@@ -11881,22 +11888,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>40269</v>
       </c>
       <c r="B114" s="1">
-        <v>2.3992025926096701</v>
+        <v>2.56566214832832</v>
       </c>
       <c r="C114" s="1">
         <v>16.230013381528199</v>
       </c>
       <c r="D114" s="1">
-        <v>1889.007810456</v>
+        <v>2132.26543976228</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="14"/>
-        <v>1.1717886549497516</v>
+        <v>1.1566430892762072</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="23"/>
@@ -11904,7 +11911,7 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="22"/>
-        <v>1.1570274066726032</v>
+        <v>1.147979908531932</v>
       </c>
       <c r="H114" s="1">
         <v>1.36571644590529</v>
@@ -11977,22 +11984,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:28">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>40299</v>
       </c>
       <c r="B115" s="1">
-        <v>2.4084696778665502</v>
+        <v>2.5704498024378801</v>
       </c>
       <c r="C115" s="1">
         <v>15.718901943859199</v>
       </c>
       <c r="D115" s="1">
-        <v>1894.54941832857</v>
+        <v>2134.5485554112902</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="14"/>
-        <v>1.1532590602149753</v>
+        <v>1.1381079565045964</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="23"/>
@@ -12000,7 +12007,7 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="22"/>
-        <v>1.1413759470353728</v>
+        <v>1.1290469477188529</v>
       </c>
       <c r="H115" s="1">
         <v>1.3782616514463699</v>
@@ -12073,22 +12080,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:28">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>40330</v>
       </c>
       <c r="B116" s="1">
-        <v>2.4149766213335999</v>
+        <v>2.5723183464725001</v>
       </c>
       <c r="C116" s="1">
         <v>15.039809083072001</v>
       </c>
       <c r="D116" s="1">
-        <v>1897.2281123350499</v>
+        <v>2134.34627034809</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" si="14"/>
-        <v>1.1335820118105102</v>
+        <v>1.1208617194153341</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="23"/>
@@ -12096,7 +12103,7 @@
       </c>
       <c r="G116" s="1">
         <f t="shared" si="22"/>
-        <v>1.122069872173127</v>
+        <v>1.1086799258716444</v>
       </c>
       <c r="H116" s="1">
         <v>1.3866311127311299</v>
@@ -12169,22 +12176,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>40360</v>
       </c>
       <c r="B117" s="1">
-        <v>2.41928568828639</v>
+        <v>2.5722615871424499</v>
       </c>
       <c r="C117" s="1">
         <v>14.2891290125713</v>
       </c>
       <c r="D117" s="1">
-        <v>1898.3280923064301</v>
+        <v>2133.5753343064298</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" si="14"/>
-        <v>1.1152964183683511</v>
+        <v>1.1050528471870722</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="23"/>
@@ -12192,7 +12199,7 @@
       </c>
       <c r="G117" s="1">
         <f t="shared" si="22"/>
-        <v>1.1016173876773627</v>
+        <v>1.088844403420089</v>
       </c>
       <c r="H117" s="1">
         <v>1.39290998717486</v>
@@ -12265,22 +12272,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:28">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>40391</v>
       </c>
       <c r="B118" s="1">
-        <v>2.4225775808338899</v>
+        <v>2.5717353647526702</v>
       </c>
       <c r="C118" s="1">
         <v>13.631414442237901</v>
       </c>
       <c r="D118" s="1">
-        <v>1897.6666800320199</v>
+        <v>2131.6642629634598</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="14"/>
-        <v>1.0995494040159508</v>
+        <v>1.0904286335970117</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="23"/>
@@ -12288,7 +12295,7 @@
       </c>
       <c r="G118" s="1">
         <f t="shared" si="22"/>
-        <v>1.0805417058644387</v>
+        <v>1.0694047822889114</v>
       </c>
       <c r="H118" s="1">
         <v>1.3979226156356399</v>
@@ -12361,22 +12368,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:28">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>40422</v>
       </c>
       <c r="B119" s="1">
-        <v>2.4274570452378201</v>
+        <v>2.5748260869337098</v>
       </c>
       <c r="C119" s="1">
         <v>13.305938975836501</v>
       </c>
       <c r="D119" s="1">
-        <v>1898.9979841238001</v>
+        <v>2132.3337900178399</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="14"/>
-        <v>1.0870617416022585</v>
+        <v>1.0781399074236584</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="23"/>
@@ -12384,7 +12391,7 @@
       </c>
       <c r="G119" s="1">
         <f t="shared" si="22"/>
-        <v>1.0628597699292579</v>
+        <v>1.053027652728092</v>
       </c>
       <c r="H119" s="1">
         <v>1.40464535730936</v>
@@ -12457,22 +12464,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>40452</v>
       </c>
       <c r="B120" s="1">
-        <v>2.4365796860732898</v>
+        <v>2.5849480902484601</v>
       </c>
       <c r="C120" s="1">
         <v>13.347147834568601</v>
       </c>
       <c r="D120" s="1">
-        <v>1907.62324941623</v>
+        <v>2141.36338416633</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="14"/>
-        <v>1.0780995204497399</v>
+        <v>1.0692566331266187</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="23"/>
@@ -12480,7 +12487,7 @@
       </c>
       <c r="G120" s="1">
         <f t="shared" si="22"/>
-        <v>1.0534993949596458</v>
+        <v>1.0440055594236424</v>
       </c>
       <c r="H120" s="1">
         <v>1.41475851715541</v>
@@ -12553,22 +12560,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:28">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>40483</v>
       </c>
       <c r="B121" s="1">
-        <v>2.4508446048530699</v>
+        <v>2.6023831236742101</v>
       </c>
       <c r="C121" s="1">
         <v>13.591232620728899</v>
       </c>
       <c r="D121" s="1">
-        <v>1923.6036960625199</v>
+        <v>2158.8200540975499</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="14"/>
-        <v>1.0718666405094535</v>
+        <v>1.0632785279986849</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="23"/>
@@ -12576,7 +12583,7 @@
       </c>
       <c r="G121" s="1">
         <f t="shared" si="22"/>
-        <v>1.0521786978691599</v>
+        <v>1.0427307332511122</v>
       </c>
       <c r="H121" s="1">
         <v>1.4295288666864101</v>
@@ -12649,22 +12656,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>40513</v>
       </c>
       <c r="B122" s="1">
-        <v>2.4701514240781202</v>
+        <v>2.6261960136625402</v>
       </c>
       <c r="C122" s="1">
         <v>13.828165953442999</v>
       </c>
       <c r="D122" s="1">
-        <v>1943.8155346558899</v>
+        <v>2180.6623772942899</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="14"/>
-        <v>1.0676474345088836</v>
+        <v>1.0595445861862911</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="23"/>
@@ -12672,7 +12679,7 @@
       </c>
       <c r="G122" s="1">
         <f t="shared" si="22"/>
-        <v>1.0553949225080026</v>
+        <v>1.0456232433801516</v>
       </c>
       <c r="H122" s="1">
         <v>1.4496188981335001</v>
@@ -12745,22 +12752,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:28">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>40544</v>
       </c>
       <c r="B123" s="1">
-        <v>2.4937839573055198</v>
+        <v>2.6542067527851798</v>
       </c>
       <c r="C123" s="1">
         <v>14.0033963291904</v>
       </c>
       <c r="D123" s="1">
-        <v>1964.96654068367</v>
+        <v>2202.5286341451501</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="14"/>
-        <v>1.0654989558927437</v>
+        <v>1.0578854592887847</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="23"/>
@@ -12768,7 +12775,7 @@
       </c>
       <c r="G123" s="1">
         <f t="shared" si="22"/>
-        <v>1.059516904655071</v>
+        <v>1.0489405586418525</v>
       </c>
       <c r="H123" s="1">
         <v>1.4713346701022501</v>
@@ -12841,22 +12848,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:28">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>40575</v>
       </c>
       <c r="B124" s="1">
-        <v>2.52018356928484</v>
+        <v>2.68407065745025</v>
       </c>
       <c r="C124" s="1">
         <v>14.152638566993501</v>
       </c>
       <c r="D124" s="1">
-        <v>1986.76266163845</v>
+        <v>2223.7318580525898</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="14"/>
-        <v>1.0656227852423168</v>
+        <v>1.0586648725759109</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="23"/>
@@ -12864,7 +12871,7 @@
       </c>
       <c r="G124" s="1">
         <f t="shared" si="22"/>
-        <v>1.0637969571159838</v>
+        <v>1.0521940487737849</v>
       </c>
       <c r="H124" s="1">
         <v>1.49354679015828</v>
@@ -12937,22 +12944,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:28">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>40603</v>
       </c>
       <c r="B125" s="1">
-        <v>2.5465480970765899</v>
+        <v>2.7121786673752402</v>
       </c>
       <c r="C125" s="1">
         <v>14.242117502461401</v>
       </c>
       <c r="D125" s="1">
-        <v>2008.7855961093201</v>
+        <v>2244.25533349753</v>
       </c>
       <c r="E125" s="1">
         <f t="shared" si="14"/>
-        <v>1.0677978660294141</v>
+        <v>1.0617323569856914</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="23"/>
@@ -12960,7 +12967,7 @@
       </c>
       <c r="G125" s="1">
         <f t="shared" si="22"/>
-        <v>1.0687314698260499</v>
+        <v>1.0562041432152265</v>
       </c>
       <c r="H125" s="1">
         <v>1.5142581967080899</v>
@@ -13033,22 +13040,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:28">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>40634</v>
       </c>
       <c r="B126" s="1">
-        <v>2.57061877343819</v>
+        <v>2.7361177266647898</v>
       </c>
       <c r="C126" s="1">
         <v>14.2710318142367</v>
       </c>
       <c r="D126" s="1">
-        <v>2030.45969570736</v>
+        <v>2264.0125717444098</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="14"/>
-        <v>1.071447147213219</v>
+        <v>1.0664372658915873</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="23"/>
@@ -13056,7 +13063,7 @@
       </c>
       <c r="G126" s="1">
         <f t="shared" si="22"/>
-        <v>1.0748815777618272</v>
+        <v>1.0617873973499368</v>
       </c>
       <c r="H126" s="1">
         <v>1.5310602115326599</v>
@@ -13129,22 +13136,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:28">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>40664</v>
       </c>
       <c r="B127" s="1">
-        <v>2.5895728149606998</v>
+        <v>2.75369024577514</v>
       </c>
       <c r="C127" s="1">
         <v>14.2809872730015</v>
       </c>
       <c r="D127" s="1">
-        <v>2049.7784811199599</v>
+        <v>2281.6625505133702</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="14"/>
-        <v>1.0751942774112784</v>
+        <v>1.0712873066665103</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="23"/>
@@ -13152,7 +13159,7 @@
       </c>
       <c r="G127" s="1">
         <f t="shared" si="22"/>
-        <v>1.0819345546173917</v>
+        <v>1.068920425693354</v>
       </c>
       <c r="H127" s="1">
         <v>1.5459039293538399</v>
@@ -13225,22 +13232,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:28">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>40695</v>
       </c>
       <c r="B128" s="1">
-        <v>2.6010234229855702</v>
+        <v>2.7634354155441399</v>
       </c>
       <c r="C128" s="1">
         <v>14.2539815894217</v>
       </c>
       <c r="D128" s="1">
-        <v>2064.0983389097801</v>
+        <v>2295.20106315372</v>
       </c>
       <c r="E128" s="1">
         <f t="shared" si="14"/>
-        <v>1.0770387588883703</v>
+        <v>1.0742975959152663</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="23"/>
@@ -13248,7 +13255,7 @@
       </c>
       <c r="G128" s="1">
         <f t="shared" si="22"/>
-        <v>1.0879547511919121</v>
+        <v>1.0753648998010976</v>
       </c>
       <c r="H128" s="1">
         <v>1.5599924779599299</v>
@@ -13321,22 +13328,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:28">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>40725</v>
       </c>
       <c r="B129" s="1">
-        <v>2.6046008701640901</v>
+        <v>2.7658120988400898</v>
       </c>
       <c r="C129" s="1">
         <v>14.1331830993719</v>
       </c>
       <c r="D129" s="1">
-        <v>2072.6823769473299</v>
+        <v>2303.2004246203101</v>
       </c>
       <c r="E129" s="1">
         <f t="shared" si="14"/>
-        <v>1.0765991312125527</v>
+        <v>1.0752452676917112</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="23"/>
@@ -13344,7 +13351,7 @@
       </c>
       <c r="G129" s="1">
         <f t="shared" si="22"/>
-        <v>1.0918462331919994</v>
+        <v>1.0795027424560197</v>
       </c>
       <c r="H129" s="1">
         <v>1.5722849261510401</v>
@@ -13417,22 +13424,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:28">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>40756</v>
       </c>
       <c r="B130" s="1">
-        <v>2.6004116464495199</v>
+        <v>2.76005558838501</v>
       </c>
       <c r="C130" s="1">
         <v>13.9105319133894</v>
       </c>
       <c r="D130" s="1">
-        <v>2074.6546105642401</v>
+        <v>2305.5885638404998</v>
       </c>
       <c r="E130" s="1">
         <f t="shared" si="14"/>
-        <v>1.0734069641453616</v>
+        <v>1.0732269059302884</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="23"/>
@@ -13440,7 +13447,7 @@
       </c>
       <c r="G130" s="1">
         <f t="shared" si="22"/>
-        <v>1.0932660790193323</v>
+        <v>1.0815908508196543</v>
       </c>
       <c r="H130" s="1">
         <v>1.58143855466973</v>
@@ -13513,22 +13520,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:28">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>40787</v>
       </c>
       <c r="B131" s="1">
-        <v>2.5892109293267902</v>
+        <v>2.74720087021689</v>
       </c>
       <c r="C131" s="1">
         <v>13.634333403577701</v>
       </c>
       <c r="D131" s="1">
-        <v>2069.9936465736</v>
+        <v>2301.1977853972298</v>
       </c>
       <c r="E131" s="1">
         <f t="shared" si="14"/>
-        <v>1.0666351169452404</v>
+        <v>1.0669461848929986</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="23"/>
@@ -13536,7 +13543,7 @@
       </c>
       <c r="G131" s="1">
         <f t="shared" si="22"/>
-        <v>1.0900452048287443</v>
+        <v>1.0791921021792639</v>
       </c>
       <c r="H131" s="1">
         <v>1.5863584591827</v>
@@ -13609,22 +13616,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:28">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>40817</v>
       </c>
       <c r="B132" s="1">
-        <v>2.57671572391954</v>
+        <v>2.7336069422976799</v>
       </c>
       <c r="C132" s="1">
         <v>13.3997724489594</v>
       </c>
       <c r="D132" s="1">
-        <v>2060.3288278648902</v>
+        <v>2290.4779467510202</v>
       </c>
       <c r="E132" s="1">
         <f t="shared" si="14"/>
-        <v>1.0575134228719147</v>
+        <v>1.0575094148350697</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="23"/>
@@ -13632,7 +13639,7 @@
       </c>
       <c r="G132" s="1">
         <f t="shared" si="22"/>
-        <v>1.0800501768341264</v>
+        <v>1.0696353377886598</v>
       </c>
       <c r="H132" s="1">
         <v>1.5837593726224199</v>
@@ -13705,22 +13712,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:28">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>40848</v>
       </c>
       <c r="B133" s="1">
-        <v>2.5686542034397899</v>
+        <v>2.7250689996663802</v>
       </c>
       <c r="C133" s="1">
         <v>13.3031014950604</v>
       </c>
       <c r="D133" s="1">
-        <v>2050.94207310605</v>
+        <v>2279.4752495899102</v>
       </c>
       <c r="E133" s="1">
         <f t="shared" si="14"/>
-        <v>1.0480689793034768</v>
+        <v>1.0471436641577025</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="23"/>
@@ -13728,7 +13735,7 @@
       </c>
       <c r="G133" s="1">
         <f t="shared" si="22"/>
-        <v>1.0661978230257005</v>
+        <v>1.0558894175840874</v>
       </c>
       <c r="H133" s="1">
         <v>1.57727772001786</v>
@@ -13801,22 +13808,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:28">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>40878</v>
       </c>
       <c r="B134" s="1">
-        <v>2.5684192644853301</v>
+        <v>2.7244289908515702</v>
       </c>
       <c r="C134" s="1">
         <v>13.3169669037501</v>
       </c>
       <c r="D134" s="1">
-        <v>2047.88371693933</v>
+        <v>2274.33714651738</v>
       </c>
       <c r="E134" s="1">
         <f t="shared" si="14"/>
-        <v>1.0397821119180515</v>
+        <v>1.0374050439030378</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="23"/>
@@ -13824,7 +13831,7 @@
       </c>
       <c r="G134" s="1">
         <f t="shared" si="22"/>
-        <v>1.0535380957853406</v>
+        <v>1.042957025442572</v>
       </c>
       <c r="H134" s="1">
         <v>1.5674623837391399</v>
@@ -13897,22 +13904,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:28">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>40909</v>
       </c>
       <c r="B135" s="1">
-        <v>2.5748018056278301</v>
+        <v>2.73014961111901</v>
       </c>
       <c r="C135" s="1">
         <v>13.2673324812581</v>
       </c>
       <c r="D135" s="1">
-        <v>2052.37663962024</v>
+        <v>2276.8462183226402</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="14"/>
-        <v>1.03248791784267</v>
+        <v>1.0286122617441689</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="23"/>
@@ -13920,7 +13927,7 @@
       </c>
       <c r="G135" s="1">
         <f t="shared" si="22"/>
-        <v>1.0444842683713877</v>
+        <v>1.0337419378006563</v>
       </c>
       <c r="H135" s="1">
         <v>1.55899008608322</v>
@@ -13993,22 +14000,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:28">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>40940</v>
       </c>
       <c r="B136" s="1">
-        <v>2.58322913899416</v>
+        <v>2.7375403953445199</v>
       </c>
       <c r="C136" s="1">
         <v>12.9688659126471</v>
       </c>
       <c r="D136" s="1">
-        <v>2059.6602095479898</v>
+        <v>2283.46678481046</v>
       </c>
       <c r="E136" s="1">
         <f t="shared" si="14"/>
-        <v>1.0250162609096014</v>
+        <v>1.0199211364819523</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="23"/>
@@ -14016,7 +14023,7 @@
       </c>
       <c r="G136" s="1">
         <f t="shared" si="22"/>
-        <v>1.0366916236735708</v>
+        <v>1.0268624683958893</v>
       </c>
       <c r="H136" s="1">
         <v>1.55602464081525</v>
@@ -14089,22 +14096,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:28">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>40969</v>
       </c>
       <c r="B137" s="1">
-        <v>2.5882261753132498</v>
+        <v>2.7413505154525</v>
       </c>
       <c r="C137" s="1">
         <v>12.3731499863202</v>
       </c>
       <c r="D137" s="1">
-        <v>2063.9557721647798</v>
+        <v>2287.8563192897</v>
       </c>
       <c r="E137" s="1">
         <f t="shared" si="14"/>
-        <v>1.0163664995310735</v>
+        <v>1.0107558725493153</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="23"/>
@@ -14112,7 +14119,7 @@
       </c>
       <c r="G137" s="1">
         <f t="shared" si="22"/>
-        <v>1.0274644422791139</v>
+        <v>1.0194278187251629</v>
       </c>
       <c r="H137" s="1">
         <v>1.5586556670256599</v>
@@ -14185,22 +14192,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:28">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>41000</v>
       </c>
       <c r="B138" s="1">
-        <v>2.5834061017725198</v>
+        <v>2.7359056413007399</v>
       </c>
       <c r="C138" s="1">
         <v>11.5391167562312</v>
       </c>
       <c r="D138" s="1">
-        <v>2059.9093763194101</v>
+        <v>2284.0021696291901</v>
       </c>
       <c r="E138" s="1">
         <f t="shared" si="14"/>
-        <v>1.0049744164581926</v>
+        <v>0.99992248675487061</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="23"/>
@@ -14208,7 +14215,7 @@
       </c>
       <c r="G138" s="1">
         <f t="shared" si="22"/>
-        <v>1.0145039473939377</v>
+        <v>1.0088292786596049</v>
       </c>
       <c r="H138" s="1">
         <v>1.5682853577607501</v>
@@ -14281,22 +14288,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:28">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>41030</v>
       </c>
       <c r="B139" s="1">
-        <v>2.5646750490910599</v>
+        <v>2.71685458327461</v>
       </c>
       <c r="C139" s="1">
         <v>10.6214929377144</v>
       </c>
       <c r="D139" s="1">
-        <v>2044.0694400714699</v>
+        <v>2267.8277107628401</v>
       </c>
       <c r="E139" s="1">
         <f t="shared" si="14"/>
-        <v>0.99038537718429909</v>
+        <v>0.98662316411330386</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="23"/>
@@ -14304,7 +14311,7 @@
       </c>
       <c r="G139" s="1">
         <f t="shared" si="22"/>
-        <v>0.99721480096455561</v>
+        <v>0.99393650925838384</v>
       </c>
       <c r="H139" s="1">
         <v>1.5791162567872701</v>
@@ -14377,22 +14384,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:28">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>41061</v>
       </c>
       <c r="B140" s="1">
-        <v>2.5351375539668299</v>
+        <v>2.6872885769066599</v>
       </c>
       <c r="C140" s="1">
         <v>9.8512203185432305</v>
       </c>
       <c r="D140" s="1">
-        <v>2018.7173404284599</v>
+        <v>2241.1751763331199</v>
       </c>
       <c r="E140" s="1">
         <f t="shared" si="14"/>
-        <v>0.97466925194271659</v>
+        <v>0.97244486402354147</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="23"/>
@@ -14400,7 +14407,7 @@
       </c>
       <c r="G140" s="1">
         <f t="shared" si="22"/>
-        <v>0.97801412964399281</v>
+        <v>0.97646137077578476</v>
       </c>
       <c r="H140" s="1">
         <v>1.5861831280580201</v>
@@ -14473,22 +14480,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:28">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>41091</v>
       </c>
       <c r="B141" s="1">
-        <v>2.5036738823935298</v>
+        <v>2.6556171806211699</v>
       </c>
       <c r="C141" s="1">
         <v>9.4074288841002307</v>
       </c>
       <c r="D141" s="1">
-        <v>1991.8023663685999</v>
+        <v>2211.4823436236502</v>
       </c>
       <c r="E141" s="1">
         <f t="shared" si="14"/>
-        <v>0.96125049756118608</v>
+        <v>0.96015820515604333</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="23"/>
@@ -14496,7 +14503,7 @@
       </c>
       <c r="G141" s="1">
         <f t="shared" si="22"/>
-        <v>0.96097809704068071</v>
+        <v>0.96017798537364374</v>
       </c>
       <c r="H141" s="1">
         <v>1.5921639300655599</v>
@@ -14569,22 +14576,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:28">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>41122</v>
       </c>
       <c r="B142" s="1">
-        <v>2.4813502469342299</v>
+        <v>2.6328882422165201</v>
       </c>
       <c r="C142" s="1">
         <v>9.2790959968690903</v>
       </c>
       <c r="D142" s="1">
-        <v>1973.9455621731399</v>
+        <v>2189.9301246817299</v>
       </c>
       <c r="E142" s="1">
         <f t="shared" si="14"/>
-        <v>0.95421440306274163</v>
+        <v>0.95392580254410775</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="23"/>
@@ -14592,7 +14599,7 @@
       </c>
       <c r="G142" s="1">
         <f t="shared" si="22"/>
-        <v>0.95145743880533906</v>
+        <v>0.94983561205468792</v>
       </c>
       <c r="H142" s="1">
         <v>1.60040372923852</v>
@@ -14665,22 +14672,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:28">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>41153</v>
       </c>
       <c r="B143" s="1">
-        <v>2.4755243538386802</v>
+        <v>2.62606433956593</v>
       </c>
       <c r="C143" s="1">
         <v>9.3180969661321598</v>
       </c>
       <c r="D143" s="1">
-        <v>1971.65939718648</v>
+        <v>2183.8509706692498</v>
       </c>
       <c r="E143" s="1">
         <f t="shared" si="14"/>
-        <v>0.95609219233534237</v>
+        <v>0.95590547019541516</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="23"/>
@@ -14688,7 +14695,7 @@
       </c>
       <c r="G143" s="1">
         <f t="shared" si="22"/>
-        <v>0.95249538589169591</v>
+        <v>0.9490062021297645</v>
       </c>
       <c r="H143" s="1">
         <v>1.6108185613185</v>
@@ -14761,22 +14768,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:28">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>41183</v>
       </c>
       <c r="B144" s="1">
-        <v>2.4861810980026799</v>
+        <v>2.6343008368294401</v>
       </c>
       <c r="C144" s="1">
         <v>9.3868119680153104</v>
       </c>
       <c r="D144" s="1">
-        <v>1983.7966662318099</v>
+        <v>2194.6684814914302</v>
       </c>
       <c r="E144" s="1">
         <f t="shared" ref="E144:E182" si="24">B144/B132</f>
-        <v>0.9648643328884009</v>
+        <v>0.96367213444930377</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="23"/>
@@ -14784,7 +14791,7 @@
       </c>
       <c r="G144" s="1">
         <f t="shared" si="22"/>
-        <v>0.9628543946005016</v>
+        <v>0.95817053580651446</v>
       </c>
       <c r="H144" s="1">
         <v>1.6264099348390799</v>
@@ -14857,22 +14864,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:28">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>41214</v>
       </c>
       <c r="B145" s="1">
-        <v>2.5067578516205198</v>
+        <v>2.6526803732156599</v>
       </c>
       <c r="C145" s="1">
         <v>9.4030834052653702</v>
       </c>
       <c r="D145" s="1">
-        <v>2003.6873798673601</v>
+        <v>2216.2415615844402</v>
       </c>
       <c r="E145" s="1">
         <f t="shared" si="24"/>
-        <v>0.97590319797176972</v>
+        <v>0.97343603906558607</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="23"/>
@@ -14880,7 +14887,7 @@
       </c>
       <c r="G145" s="1">
         <f t="shared" ref="G145:G182" si="32">D145/D133</f>
-        <v>0.97695951833143435</v>
+        <v>0.97225954174459839</v>
       </c>
       <c r="H145" s="1">
         <v>1.6481760829205101</v>
@@ -14953,22 +14960,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:28">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>41244</v>
       </c>
       <c r="B146" s="1">
-        <v>2.52636645110015</v>
+        <v>2.6720420023322302</v>
       </c>
       <c r="C146" s="1">
         <v>9.3402999220897502</v>
       </c>
       <c r="D146" s="1">
-        <v>2019.6050850122499</v>
+        <v>2236.6832539441998</v>
       </c>
       <c r="E146" s="1">
         <f t="shared" si="24"/>
-        <v>0.98362696699613539</v>
+        <v>0.98077138780447148</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="23"/>
@@ -14976,7 +14983,7 @@
       </c>
       <c r="G146" s="1">
         <f t="shared" si="32"/>
-        <v>0.98619129021185636</v>
+        <v>0.9834440146084592</v>
       </c>
       <c r="H146" s="1">
         <v>1.66926237282118</v>
@@ -15049,22 +15056,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:28">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>41275</v>
       </c>
       <c r="B147" s="1">
-        <v>2.5348054943250502</v>
+        <v>2.6824348857598599</v>
       </c>
       <c r="C147" s="1">
         <v>9.2430098630917108</v>
       </c>
       <c r="D147" s="1">
-        <v>2022.88505327141</v>
+        <v>2246.02710054514</v>
       </c>
       <c r="E147" s="1">
         <f t="shared" si="24"/>
-        <v>0.98446625630937545</v>
+        <v>0.98252303640620153</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="23"/>
@@ -15072,7 +15079,7 @@
       </c>
       <c r="G147" s="1">
         <f t="shared" si="32"/>
-        <v>0.98563051937957791</v>
+        <v>0.98646411974182224</v>
       </c>
       <c r="H147" s="1">
         <v>1.68838220755568</v>
@@ -15145,22 +15152,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:28">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>41306</v>
       </c>
       <c r="B148" s="1">
-        <v>2.5277747673222599</v>
+        <v>2.6784341601942301</v>
       </c>
       <c r="C148" s="1">
         <v>9.1390171861693208</v>
       </c>
       <c r="D148" s="1">
-        <v>2012.5771157542199</v>
+        <v>2241.1055555583098</v>
       </c>
       <c r="E148" s="1">
         <f t="shared" si="24"/>
-        <v>0.9785329257730917</v>
+        <v>0.97840899982670348</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="23"/>
@@ -15168,7 +15175,7 @@
       </c>
       <c r="G148" s="1">
         <f t="shared" si="32"/>
-        <v>0.97714035860113901</v>
+        <v>0.98144872107011338</v>
       </c>
       <c r="H148" s="1">
         <v>1.7026706686195501</v>
@@ -15241,22 +15248,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:28">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>41334</v>
       </c>
       <c r="B149" s="1">
-        <v>2.5076510585446901</v>
+        <v>2.6609030729988801</v>
       </c>
       <c r="C149" s="1">
         <v>9.0988515867736908</v>
       </c>
       <c r="D149" s="1">
-        <v>1992.3974310767501</v>
+        <v>2224.5061530187099</v>
       </c>
       <c r="E149" s="1">
         <f t="shared" si="24"/>
-        <v>0.96886859520350543</v>
+        <v>0.97065408381739138</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="23"/>
@@ -15264,7 +15271,7 @@
       </c>
       <c r="G149" s="1">
         <f t="shared" si="32"/>
-        <v>0.96532951817423118</v>
+        <v>0.97231025141882244</v>
       </c>
       <c r="H149" s="1">
         <v>1.7119952171969499</v>
@@ -15337,22 +15344,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:28">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>41365</v>
       </c>
       <c r="B150" s="1">
-        <v>2.4848474642204299</v>
+        <v>2.63893003985967</v>
       </c>
       <c r="C150" s="1">
         <v>9.1791207019486905</v>
       </c>
       <c r="D150" s="1">
-        <v>1970.8693301267199</v>
+        <v>2204.20431464065</v>
       </c>
       <c r="E150" s="1">
         <f t="shared" si="24"/>
-        <v>0.96184934397868493</v>
+        <v>0.96455447878861622</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="23"/>
@@ -15360,7 +15367,7 @@
       </c>
       <c r="G150" s="1">
         <f t="shared" si="32"/>
-        <v>0.95677477503802399</v>
+        <v>0.96506226830708508</v>
       </c>
       <c r="H150" s="1">
         <v>1.72021724882368</v>
@@ -15433,22 +15440,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:28">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>41395</v>
       </c>
       <c r="B151" s="1">
-        <v>2.4726436529440399</v>
+        <v>2.6257156842871701</v>
       </c>
       <c r="C151" s="1">
         <v>9.3820116765211807</v>
       </c>
       <c r="D151" s="1">
-        <v>1958.9065533043499</v>
+        <v>2190.6140170193698</v>
       </c>
       <c r="E151" s="1">
         <f t="shared" si="24"/>
-        <v>0.96411576734462456</v>
+        <v>0.96645425944086016</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="23"/>
@@ -15456,7 +15463,7 @@
       </c>
       <c r="G151" s="1">
         <f t="shared" si="32"/>
-        <v>0.95833659801491755</v>
+        <v>0.96595257506686982</v>
       </c>
       <c r="H151" s="1">
         <v>1.7296690644563399</v>
@@ -15529,22 +15536,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:28">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>41426</v>
       </c>
       <c r="B152" s="1">
-        <v>2.4777740505376502</v>
+        <v>2.6280839775596601</v>
       </c>
       <c r="C152" s="1">
         <v>9.6550145888626098</v>
       </c>
       <c r="D152" s="1">
-        <v>1961.8081574728701</v>
+        <v>2188.9267957490001</v>
       </c>
       <c r="E152" s="1">
         <f t="shared" si="24"/>
-        <v>0.97737262684645221</v>
+        <v>0.97796864845265319</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="23"/>
@@ -15552,7 +15559,7 @@
       </c>
       <c r="G152" s="1">
         <f t="shared" si="32"/>
-        <v>0.97180923658013896</v>
+        <v>0.9766870608170819</v>
       </c>
       <c r="H152" s="1">
         <v>1.7416856418740401</v>
@@ -15625,22 +15632,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:28">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>41456</v>
       </c>
       <c r="B153" s="1">
-        <v>2.4994882393117699</v>
+        <v>2.6461020358143101</v>
       </c>
       <c r="C153" s="1">
         <v>9.9054525380823506</v>
       </c>
       <c r="D153" s="1">
-        <v>1976.8866504388</v>
+        <v>2198.5771183864299</v>
       </c>
       <c r="E153" s="1">
         <f t="shared" si="24"/>
-        <v>0.99832819956656715</v>
+        <v>0.99641697422493924</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="23"/>
@@ -15648,7 +15655,7 @@
       </c>
       <c r="G153" s="1">
         <f t="shared" si="32"/>
-        <v>0.99251144783154677</v>
+        <v>0.99416444572825557</v>
       </c>
       <c r="H153" s="1">
         <v>1.7552644163181701</v>
@@ -15721,22 +15728,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:28">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>41487</v>
       </c>
       <c r="B154" s="1">
-        <v>2.5313222604180501</v>
+        <v>2.6743724579099202</v>
       </c>
       <c r="C154" s="1">
         <v>10.067698763061101</v>
       </c>
       <c r="D154" s="1">
-        <v>1997.5608956088499</v>
+        <v>2214.8774725102398</v>
       </c>
       <c r="E154" s="1">
         <f t="shared" si="24"/>
-        <v>1.0201390406475515</v>
+        <v>1.0157561627676517</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="23"/>
@@ -15744,7 +15751,7 @@
       </c>
       <c r="G154" s="1">
         <f t="shared" si="32"/>
-        <v>1.0119635180869484</v>
+        <v>1.0113918465011005</v>
       </c>
       <c r="H154" s="1">
         <v>1.77043758532318</v>
@@ -15817,22 +15824,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>41518</v>
       </c>
       <c r="B155" s="1">
-        <v>2.5620539125349699</v>
+        <v>2.7023956630050301</v>
       </c>
       <c r="C155" s="1">
         <v>10.085289908826301</v>
       </c>
       <c r="D155" s="1">
-        <v>2014.7843341574201</v>
+        <v>2229.4259493601999</v>
       </c>
       <c r="E155" s="1">
         <f t="shared" si="24"/>
-        <v>1.0349540324909801</v>
+        <v>1.0290668138967674</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="23"/>
@@ -15840,7 +15847,7 @@
       </c>
       <c r="G155" s="1">
         <f t="shared" si="32"/>
-        <v>1.0218724070863754</v>
+        <v>1.0208690882771105</v>
       </c>
       <c r="H155" s="1">
         <v>1.78683685184859</v>
@@ -15913,22 +15920,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:28">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>41548</v>
       </c>
       <c r="B156" s="1">
-        <v>2.5786871844456698</v>
+        <v>2.71816831050399</v>
       </c>
       <c r="C156" s="1">
         <v>9.9370754387778</v>
       </c>
       <c r="D156" s="1">
-        <v>2019.1094136972899</v>
+        <v>2232.9984009409</v>
       </c>
       <c r="E156" s="1">
         <f t="shared" si="24"/>
-        <v>1.0372081046377941</v>
+        <v>1.0318367107135304</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="23"/>
@@ -15936,7 +15943,7 @@
       </c>
       <c r="G156" s="1">
         <f t="shared" si="32"/>
-        <v>1.0178005881684216</v>
+        <v>1.0174650156835632</v>
       </c>
       <c r="H156" s="1">
         <v>1.8014921409589899</v>
@@ -16009,22 +16016,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:28">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>41579</v>
       </c>
       <c r="B157" s="1">
-        <v>2.5725035637889899</v>
+        <v>2.7127327689224998</v>
       </c>
       <c r="C157" s="1">
         <v>9.6512993846684303</v>
       </c>
       <c r="D157" s="1">
-        <v>2004.6698870218199</v>
+        <v>2220.9180942839998</v>
       </c>
       <c r="E157" s="1">
         <f t="shared" si="24"/>
-        <v>1.0262273885473094</v>
+        <v>1.0226383835433752</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="23"/>
@@ -16032,7 +16039,7 @@
       </c>
       <c r="G157" s="1">
         <f t="shared" si="32"/>
-        <v>1.0004903495247472</v>
+        <v>1.0021101186714576</v>
       </c>
       <c r="H157" s="1">
         <v>1.8126219308742</v>
@@ -16105,22 +16112,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:28">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>41609</v>
       </c>
       <c r="B158" s="1">
-        <v>2.54479813674397</v>
+        <v>2.6871794623477698</v>
       </c>
       <c r="C158" s="1">
         <v>9.3131314378849197</v>
       </c>
       <c r="D158" s="1">
-        <v>1974.04807367032</v>
+        <v>2195.9194031300599</v>
       </c>
       <c r="E158" s="1">
         <f t="shared" si="24"/>
-        <v>1.0072957292619975</v>
+        <v>1.0056651280190683</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="23"/>
@@ -16128,7 +16135,7 @@
       </c>
       <c r="G158" s="1">
         <f t="shared" si="32"/>
-        <v>0.97744261406350463</v>
+        <v>0.98177486653854262</v>
       </c>
       <c r="H158" s="1">
         <v>1.82473972856384</v>
@@ -16201,22 +16208,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:28">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>41640</v>
       </c>
       <c r="B159" s="1">
-        <v>2.50429306852222</v>
+        <v>2.6502900192404799</v>
       </c>
       <c r="C159" s="1">
         <v>9.0367889061107007</v>
       </c>
       <c r="D159" s="1">
-        <v>1935.6933119181899</v>
+        <v>2164.6026956465098</v>
       </c>
       <c r="E159" s="1">
         <f t="shared" si="24"/>
-        <v>0.98796261651194073</v>
+        <v>0.98801653427263936</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="23"/>
@@ -16224,7 +16231,7 @@
       </c>
       <c r="G159" s="1">
         <f t="shared" si="32"/>
-        <v>0.95689733274156452</v>
+        <v>0.96374736312003206</v>
       </c>
       <c r="H159" s="1">
         <v>1.840891551024</v>
@@ -16297,22 +16304,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:28">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>41671</v>
       </c>
       <c r="B160" s="1">
-        <v>2.4625242291128799</v>
+        <v>2.61257718324687</v>
       </c>
       <c r="C160" s="1">
         <v>8.9305936278580607</v>
       </c>
       <c r="D160" s="1">
-        <v>1899.5309617635801</v>
+        <v>2134.3826615326898</v>
       </c>
       <c r="E160" s="1">
         <f t="shared" si="24"/>
-        <v>0.97418656952632621</v>
+        <v>0.97541213522210146</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" ref="F160:F182" si="33">C160/C148</f>
@@ -16320,7 +16327,7 @@
       </c>
       <c r="G160" s="1">
         <f t="shared" si="32"/>
-        <v>0.94383015035512052</v>
+        <v>0.95237935412683716</v>
       </c>
       <c r="H160" s="1">
         <v>1.8594457612733</v>
@@ -16393,22 +16400,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:28">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>41699</v>
       </c>
       <c r="B161" s="1">
-        <v>2.43125587824612</v>
+        <v>2.58416752476107</v>
       </c>
       <c r="C161" s="1">
         <v>8.9550261839312704</v>
       </c>
       <c r="D161" s="1">
-        <v>1874.1992075895701</v>
+        <v>2111.8171002098802</v>
       </c>
       <c r="E161" s="1">
         <f t="shared" si="24"/>
-        <v>0.96953516318059585</v>
+        <v>0.97116184012244844</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="33"/>
@@ -16416,7 +16423,7 @@
       </c>
       <c r="G161" s="1">
         <f t="shared" si="32"/>
-        <v>0.94067537849448934</v>
+        <v>0.94934199096014726</v>
       </c>
       <c r="H161" s="1">
         <v>1.8822988376621099</v>
@@ -16489,22 +16496,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>41730</v>
       </c>
       <c r="B162" s="1">
-        <v>2.4167272328572702</v>
+        <v>2.5699994979824501</v>
       </c>
       <c r="C162" s="1">
         <v>9.0126085984606608</v>
       </c>
       <c r="D162" s="1">
-        <v>1864.2231629923399</v>
+        <v>2100.5233651317699</v>
       </c>
       <c r="E162" s="1">
         <f t="shared" si="24"/>
-        <v>0.97258574928882768</v>
+        <v>0.9738793598784129</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="33"/>
@@ -16512,7 +16519,7 @@
       </c>
       <c r="G162" s="1">
         <f t="shared" si="32"/>
-        <v>0.94588876821807211</v>
+        <v>0.95296218738879335</v>
       </c>
       <c r="H162" s="1">
         <v>1.90945100342903</v>
@@ -16585,22 +16592,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:28">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>41760</v>
       </c>
       <c r="B163" s="1">
-        <v>2.4172562370696</v>
+        <v>2.5681848146995101</v>
       </c>
       <c r="C163" s="1">
         <v>9.02065366364128</v>
       </c>
       <c r="D163" s="1">
-        <v>1866.86455256715</v>
+        <v>2098.3984275082698</v>
       </c>
       <c r="E163" s="1">
         <f t="shared" si="24"/>
-        <v>0.97759991990415074</v>
+        <v>0.9780894519799167</v>
       </c>
       <c r="F163" s="1">
         <f t="shared" si="33"/>
@@ -16608,7 +16615,7 @@
       </c>
       <c r="G163" s="1">
         <f t="shared" si="32"/>
-        <v>0.95301358271432579</v>
+        <v>0.95790422740169812</v>
       </c>
       <c r="H163" s="1">
         <v>1.9367805547058301</v>
@@ -16681,22 +16688,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:28">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>41791</v>
       </c>
       <c r="B164" s="1">
-        <v>2.4277732220551198</v>
+        <v>2.5744175042641602</v>
       </c>
       <c r="C164" s="1">
         <v>8.8913076150672605</v>
       </c>
       <c r="D164" s="1">
-        <v>1877.0350918776801</v>
+        <v>2101.82321844437</v>
       </c>
       <c r="E164" s="1">
         <f t="shared" si="24"/>
-        <v>0.97982026308182513</v>
+        <v>0.97957962007540844</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" si="33"/>
@@ -16704,7 +16711,7 @@
       </c>
       <c r="G164" s="1">
         <f t="shared" si="32"/>
-        <v>0.95678829998118087</v>
+        <v>0.96020717665214328</v>
       </c>
       <c r="H164" s="1">
         <v>1.96033076950725</v>
@@ -16777,22 +16784,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:28">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>41821</v>
       </c>
       <c r="B165" s="1">
-        <v>2.4384702727939001</v>
+        <v>2.5802519424424499</v>
       </c>
       <c r="C165" s="1">
         <v>8.6178116457060696</v>
       </c>
       <c r="D165" s="1">
-        <v>1886.9237281144599</v>
+        <v>2104.6751159831501</v>
       </c>
       <c r="E165" s="1">
         <f t="shared" si="24"/>
-        <v>0.97558781611444145</v>
+        <v>0.97511430304629365</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" si="33"/>
@@ -16800,7 +16807,7 @@
       </c>
       <c r="G165" s="1">
         <f t="shared" si="32"/>
-        <v>0.95449262490372355</v>
+        <v>0.95728964810104278</v>
       </c>
       <c r="H165" s="1">
         <v>1.97536655786268</v>
@@ -16873,22 +16880,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:28">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>41852</v>
       </c>
       <c r="B166" s="1">
-        <v>2.4397395121656298</v>
+        <v>2.5775017680207601</v>
       </c>
       <c r="C166" s="1">
         <v>8.2496955358987396</v>
       </c>
       <c r="D166" s="1">
-        <v>1890.0130264244999</v>
+        <v>2099.7864179109802</v>
       </c>
       <c r="E166" s="1">
         <f t="shared" si="24"/>
-        <v>0.96382019402093222</v>
+        <v>0.96377816051662957</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" si="33"/>
@@ -16896,7 +16903,7 @@
       </c>
       <c r="G166" s="1">
         <f t="shared" si="32"/>
-        <v>0.94616040521179212</v>
+        <v>0.94803728150757671</v>
       </c>
       <c r="H166" s="1">
         <v>1.98406358279769</v>
@@ -16969,22 +16976,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:28">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>41883</v>
       </c>
       <c r="B167" s="1">
-        <v>2.42835738015471</v>
+        <v>2.5629796658389399</v>
       </c>
       <c r="C167" s="1">
         <v>7.8727287510501203</v>
       </c>
       <c r="D167" s="1">
-        <v>1884.44633123363</v>
+        <v>2084.5698150856701</v>
       </c>
       <c r="E167" s="1">
         <f t="shared" si="24"/>
-        <v>0.94781665923338176</v>
+        <v>0.94841022020770216</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="33"/>
@@ -16992,7 +16999,7 @@
       </c>
       <c r="G167" s="1">
         <f t="shared" si="32"/>
-        <v>0.93530920371271531</v>
+        <v>0.9350253663656779</v>
       </c>
       <c r="H167" s="1">
         <v>1.9890534848905499</v>
@@ -17065,22 +17072,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:28">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>41913</v>
       </c>
       <c r="B168" s="1">
-        <v>2.4063314496949499</v>
+        <v>2.5358127316483898</v>
       </c>
       <c r="C168" s="1">
         <v>7.5458141568593202</v>
       </c>
       <c r="D168" s="1">
-        <v>1874.1496235489899</v>
+        <v>2059.32280788346</v>
       </c>
       <c r="E168" s="1">
         <f t="shared" si="24"/>
-        <v>0.93316144129836731</v>
+        <v>0.93291232991315809</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="33"/>
@@ -17088,7 +17095,7 @@
       </c>
       <c r="G168" s="1">
         <f t="shared" si="32"/>
-        <v>0.9282060748343216</v>
+        <v>0.92222314490495838</v>
       </c>
       <c r="H168" s="1">
         <v>1.99799931569478</v>
@@ -17161,22 +17168,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>41944</v>
       </c>
       <c r="B169" s="1">
-        <v>2.3796765918460898</v>
+        <v>2.4986314611711702</v>
       </c>
       <c r="C169" s="1">
         <v>7.2647744966095296</v>
       </c>
       <c r="D169" s="1">
-        <v>1864.4274850848101</v>
+        <v>2025.4013147918499</v>
       </c>
       <c r="E169" s="1">
         <f t="shared" si="24"/>
-        <v>0.92504306907202527</v>
+        <v>0.92107541509281399</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="33"/>
@@ -17184,7 +17191,7 @@
       </c>
       <c r="G169" s="1">
         <f t="shared" si="32"/>
-        <v>0.93004214666717178</v>
+        <v>0.91196578568324804</v>
       </c>
       <c r="H169" s="1">
         <v>2.0124211030246699</v>
@@ -17257,22 +17264,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:28">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>41974</v>
       </c>
       <c r="B170" s="1">
-        <v>2.3544226579682501</v>
+        <v>2.4556069552933399</v>
       </c>
       <c r="C170" s="1">
         <v>7.0156757376080403</v>
       </c>
       <c r="D170" s="1">
-        <v>1858.1804477350099</v>
+        <v>1984.8523596754701</v>
       </c>
       <c r="E170" s="1">
         <f t="shared" si="24"/>
-        <v>0.92519034180868176</v>
+        <v>0.91382320745630197</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="33"/>
@@ -17280,7 +17287,7 @@
       </c>
       <c r="G170" s="1">
         <f t="shared" si="32"/>
-        <v>0.9413045571276899</v>
+        <v>0.90388215380139403</v>
       </c>
       <c r="H170" s="1">
         <v>2.0342076099627802</v>
@@ -17353,22 +17360,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:28">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>42005</v>
       </c>
       <c r="B171" s="1">
-        <v>2.33477882046407</v>
+        <v>2.41190539682824</v>
       </c>
       <c r="C171" s="1">
         <v>6.7897196937797197</v>
       </c>
       <c r="D171" s="1">
-        <v>1854.9407379981701</v>
+        <v>1941.61970110283</v>
       </c>
       <c r="E171" s="1">
         <f t="shared" si="24"/>
-        <v>0.93231053897450589</v>
+        <v>0.91005338258016144</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="33"/>
@@ -17376,7 +17383,7 @@
       </c>
       <c r="G171" s="1">
         <f t="shared" si="32"/>
-        <v>0.95828235112307258</v>
+        <v>0.89698664101631798</v>
       </c>
       <c r="H171" s="1">
         <v>2.0597543263467699</v>
@@ -17449,22 +17456,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:28">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>42036</v>
       </c>
       <c r="B172" s="1">
-        <v>2.3235646900862901</v>
+        <v>2.3741025818440402</v>
       </c>
       <c r="C172" s="1">
         <v>6.5815342710860696</v>
       </c>
       <c r="D172" s="1">
-        <v>1852.7047638451299</v>
+        <v>1899.93269947966</v>
       </c>
       <c r="E172" s="1">
         <f t="shared" si="24"/>
-        <v>0.94357028556967748</v>
+        <v>0.90872055266652163</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="33"/>
@@ -17472,7 +17479,7 @@
       </c>
       <c r="G172" s="1">
         <f t="shared" si="32"/>
-        <v>0.97534854716188712</v>
+        <v>0.89015560973275876</v>
       </c>
       <c r="H172" s="1">
         <v>2.0845728209961898</v>
@@ -17545,22 +17552,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:28">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>42064</v>
       </c>
       <c r="B173" s="1">
-        <v>2.3194881480847802</v>
+        <v>2.3455868727348199</v>
       </c>
       <c r="C173" s="1">
         <v>6.4151371531026999</v>
       </c>
       <c r="D173" s="1">
-        <v>1848.7962924318001</v>
+        <v>1863.7061427328899</v>
       </c>
       <c r="E173" s="1">
         <f t="shared" si="24"/>
-        <v>0.95402880825445335</v>
+        <v>0.90767601181416868</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="33"/>
@@ -17568,7 +17575,7 @@
       </c>
       <c r="G173" s="1">
         <f t="shared" si="32"/>
-        <v>0.98644598980999409</v>
+        <v>0.88251304648857509</v>
       </c>
       <c r="H173" s="1">
         <v>2.1064143893682998</v>
@@ -17641,22 +17648,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:28">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>42095</v>
       </c>
       <c r="B174" s="1">
-        <v>2.3172467413105702</v>
+        <v>2.3243589775714</v>
       </c>
       <c r="C174" s="1">
         <v>6.3163226592119397</v>
       </c>
       <c r="D174" s="1">
-        <v>1839.4978709166101</v>
+        <v>1833.27331889483</v>
       </c>
       <c r="E174" s="1">
         <f t="shared" si="24"/>
-        <v>0.9588366902999288</v>
+        <v>0.90442001229810065</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="33"/>
@@ -17664,7 +17671,7 @@
       </c>
       <c r="G174" s="1">
         <f t="shared" si="32"/>
-        <v>0.98673694621622321</v>
+        <v>0.87276978172524411</v>
       </c>
       <c r="H174" s="1">
         <v>2.12026645758035</v>
@@ -17737,22 +17744,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:28">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>42125</v>
       </c>
       <c r="B175" s="1">
-        <v>2.3116376200208899</v>
+        <v>2.3068473920226</v>
       </c>
       <c r="C175" s="1">
         <v>6.2447105950941504</v>
       </c>
       <c r="D175" s="1">
-        <v>1823.6360938810401</v>
+        <v>1807.93739208632</v>
       </c>
       <c r="E175" s="1">
         <f t="shared" si="24"/>
-        <v>0.95630640416642387</v>
+        <v>0.89824041432645574</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="33"/>
@@ -17760,7 +17767,7 @@
       </c>
       <c r="G175" s="1">
         <f t="shared" si="32"/>
-        <v>0.97684435186973484</v>
+        <v>0.86157965445730156</v>
       </c>
       <c r="H175" s="1">
         <v>2.1274997198026799</v>
@@ -17833,22 +17840,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>42156</v>
       </c>
       <c r="B176" s="1">
-        <v>2.2972055545123098</v>
+        <v>2.2874249839872398</v>
       </c>
       <c r="C176" s="1">
         <v>6.1831492068344396</v>
       </c>
       <c r="D176" s="1">
-        <v>1802.01786075056</v>
+        <v>1785.57968746956</v>
       </c>
       <c r="E176" s="1">
         <f t="shared" si="24"/>
-        <v>0.94621916645398862</v>
+        <v>0.88852137627189154</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="33"/>
@@ -17856,7 +17863,7 @@
       </c>
       <c r="G176" s="1">
         <f t="shared" si="32"/>
-        <v>0.96003418825160214</v>
+        <v>0.84953847297924867</v>
       </c>
       <c r="H176" s="1">
         <v>2.1343722122585498</v>
@@ -17929,22 +17936,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:28">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>42186</v>
       </c>
       <c r="B177" s="1">
-        <v>2.2730547713748801</v>
+        <v>2.2625876930928301</v>
       </c>
       <c r="C177" s="1">
         <v>6.1112327177617898</v>
       </c>
       <c r="D177" s="1">
-        <v>1777.14198260935</v>
+        <v>1764.05873133501</v>
       </c>
       <c r="E177" s="1">
         <f t="shared" si="24"/>
-        <v>0.93216423293547324</v>
+        <v>0.87688634426569956</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="33"/>
@@ -17952,7 +17959,7 @@
       </c>
       <c r="G177" s="1">
         <f t="shared" si="32"/>
-        <v>0.94181972282747684</v>
+        <v>0.83816201272041502</v>
       </c>
       <c r="H177" s="1">
         <v>2.1411514918904202</v>
@@ -18025,22 +18032,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:28">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>42217</v>
       </c>
       <c r="B178" s="1">
-        <v>2.2429388612279202</v>
+        <v>2.2319131058047601</v>
       </c>
       <c r="C178" s="1">
         <v>5.9988852411986002</v>
       </c>
       <c r="D178" s="1">
-        <v>1752.88411819157</v>
+        <v>1742.55823520943</v>
       </c>
       <c r="E178" s="1">
         <f t="shared" si="24"/>
-        <v>0.91933538397998071</v>
+        <v>0.86592107656190886</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="33"/>
@@ -18048,7 +18055,7 @@
       </c>
       <c r="G178" s="1">
         <f t="shared" si="32"/>
-        <v>0.92744552216534271</v>
+        <v>0.82987403878107435</v>
       </c>
       <c r="H178" s="1">
         <v>2.1471152687594102</v>
@@ -18121,22 +18128,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:28">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>42248</v>
       </c>
       <c r="B179" s="1">
-        <v>2.2107435783815101</v>
+        <v>2.1977451358812301</v>
       </c>
       <c r="C179" s="1">
         <v>5.8579028934326498</v>
       </c>
       <c r="D179" s="1">
-        <v>1730.6281770359301</v>
+        <v>1720.5536723556099</v>
       </c>
       <c r="E179" s="1">
         <f t="shared" si="24"/>
-        <v>0.91038641859241665</v>
+        <v>0.85749612654919072</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="33"/>
@@ -18144,7 +18151,7 @@
       </c>
       <c r="G179" s="1">
         <f t="shared" si="32"/>
-        <v>0.91837488197554307</v>
+        <v>0.82537589286012947</v>
       </c>
       <c r="H179" s="1">
         <v>2.1538868268128399</v>
@@ -18217,22 +18224,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:28">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>42278</v>
       </c>
       <c r="B180" s="1">
-        <v>2.1803209971700799</v>
+        <v>2.1652787040272998</v>
       </c>
       <c r="C180" s="1">
         <v>5.7301002277983901</v>
       </c>
       <c r="D180" s="1">
-        <v>1711.02721013786</v>
+        <v>1699.5490403331301</v>
       </c>
       <c r="E180" s="1">
         <f t="shared" si="24"/>
-        <v>0.90607675740034843</v>
+        <v>0.85387957754268917</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="33"/>
@@ -18240,7 +18247,7 @@
       </c>
       <c r="G180" s="1">
         <f t="shared" si="32"/>
-        <v>0.91296190476925076</v>
+        <v>0.82529510857984434</v>
       </c>
       <c r="H180" s="1">
         <v>2.1574567804848299</v>
@@ -18313,22 +18320,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:28">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>42309</v>
       </c>
       <c r="B181" s="1">
-        <v>2.1524613729872399</v>
+        <v>2.1372627209108699</v>
       </c>
       <c r="C181" s="1">
         <v>5.6283320723963204</v>
       </c>
       <c r="D181" s="1">
-        <v>1694.79961163283</v>
+        <v>1681.2581740401599</v>
       </c>
       <c r="E181" s="1">
         <f t="shared" si="24"/>
-        <v>0.90451844606220955</v>
+        <v>0.85537333301209706</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="33"/>
@@ -18336,7 +18343,7 @@
       </c>
       <c r="G181" s="1">
         <f t="shared" si="32"/>
-        <v>0.90901878737093178</v>
+        <v>0.83008644349228267</v>
       </c>
       <c r="H181" s="1">
         <v>2.1564696788550699</v>
@@ -18409,22 +18416,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:28">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>42339</v>
       </c>
       <c r="B182" s="1">
-        <v>2.1251949689850398</v>
+        <v>2.1145865068133598</v>
       </c>
       <c r="C182" s="1">
         <v>5.5508343166403504</v>
       </c>
       <c r="D182" s="1">
-        <v>1681.94955398655</v>
+        <v>1666.5469014811399</v>
       </c>
       <c r="E182" s="1">
         <f t="shared" si="24"/>
-        <v>0.90263953321744594</v>
+        <v>0.86112580120166549</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" si="33"/>
@@ -18432,7 +18439,7 @@
       </c>
       <c r="G182" s="1">
         <f t="shared" si="32"/>
-        <v>0.90515942950359163</v>
+        <v>0.8396326776434021</v>
       </c>
       <c r="H182" s="1">
         <v>2.1589636739108302</v>
